--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_Metabolomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_MetabolomicsMassSpec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A07928-67AA-B542-82F2-C748D849A189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50450D-251B-154C-B01B-55706C351FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-20940" windowWidth="38400" windowHeight="21100" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="-6100" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -3415,31 +3415,32 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable" Worksheet="3ASY03_MetabolomicsMassSpec">
-    <TableValidation DateTime="2021-03-12 16:26" SwateVersion="0.4.5" TableName="annotationTable" Userlist="" WorksheetName="3ASY03_MetabolomicsMassSpec">
+    <TableValidation DateTime="2021-07-27 07:28" SwateVersion="0.4.5" TableName="annotationTable" Userlist="" WorksheetName="3ASY03_MetabolomicsMassSpec">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [MS sample post-extraction]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [MS sample resuspension]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [MS sample type]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [MS derivatization]" Importance="4" Unit="None" ValidationFormat="OntologyTerm MS derivatization"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Chromatography instrument model]" Importance="3" Unit="None" ValidationFormat="OntologyTerm Chromatography instrument model"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Chromatography instrument model]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Chromatography instrument model"/>
       <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Chromatography autosampler model]" Importance="3" Unit="None" ValidationFormat="OntologyTerm Chromatography autosampler model"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Chromatography column type]" Importance="3" Unit="None" ValidationFormat="OntologyTerm Chromatography column type"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [Chromatography guard column model]" Importance="4" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [scan polarity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm scan polarity"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [scan window lower limit]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [scan window upper limit]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [instrument model]" Importance="3" Unit="None" ValidationFormat="OntologyTerm instrument model"/>
-      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [ionization type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm ionization type"/>
-      <ColumnValidation ColumnAdress="41" ColumnHeader="Parameter [mass analyzer type]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="44" ColumnHeader="Parameter [detector type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Chromatography column type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Chromatography column type"/>
+      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [Chromatography column model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [Chromatography guard column model]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [scan polarity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm scan polarity"/>
+      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [scan window lower limit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [scan window upper limit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [instrument model]" Importance="3" Unit="None" ValidationFormat="OntologyTerm instrument model"/>
+      <ColumnValidation ColumnAdress="41" ColumnHeader="Parameter [ionization type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm ionization type"/>
+      <ColumnValidation ColumnAdress="44" ColumnHeader="Parameter [mass analyzer type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="47" ColumnHeader="Parameter [detector type]" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526CA18D-B3D5-5449-9BD0-88FB6BFE5C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83FA5865-628C-1944-AC1F-CBF63DBC4664}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_MetabolomicsMassSpec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50450D-251B-154C-B01B-55706C351FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE846D-86CB-4259-8286-A0290A6DB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6100" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="177">
   <si>
     <t>Source Name</t>
   </si>
@@ -546,6 +555,21 @@
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000614
 Although looking for a model name here</t>
+  </si>
+  <si>
+    <t>The name of the data file of this sample.</t>
+  </si>
+  <si>
+    <t>User instruction missing</t>
+  </si>
+  <si>
+    <t>The model of the chromatography instrument used.</t>
+  </si>
+  <si>
+    <t>The model of the instrument model used.</t>
+  </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
   </si>
 </sst>
 </file>
@@ -625,7 +649,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +742,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,11 +849,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{751FC18E-D306-8B42-912B-598F45328FEF}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -947,7 +987,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1264,71 +1304,71 @@
   <dimension ref="A1:BA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AY12" sqref="AY12"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="14"/>
-    <col min="4" max="4" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.875" style="14" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="72" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="63.875" style="14" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="70" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="27.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="62.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="40.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="27.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.625" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="62.875" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="40.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.875" style="14" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="64" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="46.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="72.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="78.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="46.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="72.625" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="78.875" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="46.625" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="74" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="80.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="40.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="80.125" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="40.375" style="14" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="68" style="14" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="74.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="52.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="74.125" style="14" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="52.625" style="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="69.5" style="14" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="75.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="75.875" style="14" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="67" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="74.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="81.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="47.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="53.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="57.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="63.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="57.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="63.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="74.875" style="14" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="81.125" style="14" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="37.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="47.625" style="14" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="53.875" style="14" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="37.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="57.625" style="14" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="63.875" style="14" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="37.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="57.625" style="14" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="63.875" style="14" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="37.875" style="14" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="52" style="14" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="58.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="49.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="55.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="53.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="58.125" style="14" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="37.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="49.375" style="14" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="55.625" style="14" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="37.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="53.375" style="14" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="59.5" style="14" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="48.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="54.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="37.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="48.125" style="14" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="54.375" style="14" hidden="1" customWidth="1"/>
     <col min="54" max="16384" width="37.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
@@ -1387,7 +1427,7 @@
       <c r="AZ1" s="4"/>
       <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>144</v>
       </c>
@@ -1544,7 +1584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>144</v>
       </c>
@@ -1601,7 +1641,7 @@
       <c r="AZ3"/>
       <c r="BA3"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1656,7 +1696,7 @@
       <c r="AZ4" s="15"/>
       <c r="BA4" s="15"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>146</v>
       </c>
@@ -1743,7 +1783,7 @@
       <c r="AZ5" s="16"/>
       <c r="BA5" s="16"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>146</v>
       </c>
@@ -1826,7 +1866,7 @@
       <c r="AZ6" s="16"/>
       <c r="BA6" s="16"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>146</v>
       </c>
@@ -1899,7 +1939,7 @@
       <c r="AZ7" s="16"/>
       <c r="BA7" s="16"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>146</v>
       </c>
@@ -1970,7 +2010,7 @@
       <c r="AZ8" s="16"/>
       <c r="BA8" s="16"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>146</v>
       </c>
@@ -2035,7 +2075,7 @@
       <c r="AZ9" s="16"/>
       <c r="BA9" s="16"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
@@ -2092,7 +2132,7 @@
       <c r="AZ10" s="16"/>
       <c r="BA10" s="16"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2147,7 +2187,7 @@
       <c r="AZ11" s="15"/>
       <c r="BA11" s="15"/>
     </row>
-    <row r="12" spans="1:53" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
@@ -2240,7 +2280,7 @@
       <c r="AZ12" s="17"/>
       <c r="BA12" s="17"/>
     </row>
-    <row r="13" spans="1:53" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
@@ -2333,7 +2373,7 @@
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
     </row>
-    <row r="14" spans="1:53" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>147</v>
       </c>
@@ -2408,7 +2448,7 @@
       <c r="AZ14" s="19"/>
       <c r="BA14" s="19"/>
     </row>
-    <row r="15" spans="1:53" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>147</v>
       </c>
@@ -2487,7 +2527,7 @@
       <c r="AZ15" s="19"/>
       <c r="BA15" s="19"/>
     </row>
-    <row r="16" spans="1:53" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>153</v>
       </c>
@@ -2497,8 +2537,12 @@
       <c r="C16" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>172</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -2511,7 +2555,9 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="R16" s="45" t="s">
+        <v>174</v>
+      </c>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
@@ -2535,7 +2581,9 @@
       <c r="AM16" s="20"/>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
+      <c r="AP16" s="45" t="s">
+        <v>175</v>
+      </c>
       <c r="AQ16" s="20"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -2548,7 +2596,7 @@
       <c r="AZ16" s="20"/>
       <c r="BA16" s="20"/>
     </row>
-    <row r="17" spans="1:53" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>153</v>
       </c>
@@ -2609,7 +2657,7 @@
       <c r="AZ17" s="21"/>
       <c r="BA17" s="21"/>
     </row>
-    <row r="18" spans="1:53" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>156</v>
       </c>
@@ -2678,7 +2726,7 @@
       <c r="AZ18" s="19"/>
       <c r="BA18" s="19"/>
     </row>
-    <row r="19" spans="1:53" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>156</v>
       </c>
@@ -2743,7 +2791,7 @@
       <c r="AZ19" s="19"/>
       <c r="BA19" s="19"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
@@ -2802,7 +2850,7 @@
       <c r="AZ20" s="19"/>
       <c r="BA20" s="19"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>156</v>
       </c>
@@ -2812,56 +2860,84 @@
       <c r="C21" s="30"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="L21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="O21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
+      <c r="U21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
+      <c r="X21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
+      <c r="AA21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
+      <c r="AD21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
+      <c r="AG21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
+      <c r="AJ21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
+      <c r="AM21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
+      <c r="AS21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AT21" s="19"/>
       <c r="AU21" s="19"/>
-      <c r="AV21" s="19"/>
+      <c r="AV21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AW21" s="19"/>
       <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
+      <c r="AY21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AZ21" s="19"/>
       <c r="BA21" s="19"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2916,7 +2992,7 @@
       <c r="AZ22" s="22"/>
       <c r="BA22" s="22"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -2971,7 +3047,7 @@
       <c r="AZ23" s="22"/>
       <c r="BA23" s="22"/>
     </row>
-    <row r="24" spans="1:53" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -3032,7 +3108,7 @@
       <c r="AZ24" s="19"/>
       <c r="BA24" s="19"/>
     </row>
-    <row r="25" spans="1:53" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -3093,7 +3169,7 @@
       <c r="AZ25" s="19"/>
       <c r="BA25" s="19"/>
     </row>
-    <row r="26" spans="1:53" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -3154,7 +3230,7 @@
       <c r="AZ26" s="19"/>
       <c r="BA26" s="19"/>
     </row>
-    <row r="27" spans="1:53" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -3215,7 +3291,7 @@
       <c r="AZ27" s="19"/>
       <c r="BA27" s="19"/>
     </row>
-    <row r="28" spans="1:53" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -3276,7 +3352,7 @@
       <c r="AZ28" s="19"/>
       <c r="BA28" s="19"/>
     </row>
-    <row r="29" spans="1:53" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -3337,7 +3413,7 @@
       <c r="AZ29" s="21"/>
       <c r="BA29" s="21"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE846D-86CB-4259-8286-A0290A6DB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B57057-18F0-4DD6-BF76-3D83B18FB252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="227">
   <si>
     <t>Source Name</t>
   </si>
@@ -570,13 +570,163 @@
   </si>
   <si>
     <t>The name of the input (the source) of this assay.</t>
+  </si>
+  <si>
+    <t>A: H2O (0.1% formic acid), B: ACN (0.1% formic acid)</t>
+  </si>
+  <si>
+    <t>20% ACN</t>
+  </si>
+  <si>
+    <t>Parameter [mobile phase]</t>
+  </si>
+  <si>
+    <t>mobile phase</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0000995</t>
+  </si>
+  <si>
+    <t>CHMO:0000995</t>
+  </si>
+  <si>
+    <t>Parameter [elution]</t>
+  </si>
+  <si>
+    <t>gradient elution</t>
+  </si>
+  <si>
+    <t>isocratic elution</t>
+  </si>
+  <si>
+    <t>elution</t>
+  </si>
+  <si>
+    <t>CHMO:0002742</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0002742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can also describe your gradient </t>
+  </si>
+  <si>
+    <t>EXTRACTION - Derivatization</t>
+  </si>
+  <si>
+    <t>If the sample has been subjected to chemical modification prior to injection.</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Chromatography Instrument</t>
+  </si>
+  <si>
+    <t>Add the full name of the instrument you used for the Chromatographic part of this assay, including the manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Column Model</t>
+  </si>
+  <si>
+    <t>Manufacturer, model number and dimensions in the format shown in the examples:</t>
+  </si>
+  <si>
+    <t>Parameter [label]</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>15N</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_35209</t>
+  </si>
+  <si>
+    <t>CHEBI:35209</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Label</t>
+  </si>
+  <si>
+    <t>If you used a chemical or biochemical marker in the sample such as a radioactive isotope of fluorescent dye which is bound to a material in order to make it detectable in an analytical instrument then enter it here.</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Scan Polarity</t>
+  </si>
+  <si>
+    <t>This should be ‘positive’ for a GC/MS assay. If you performed a LC/MS assay, values should identical within each assay. If you have ‘positive’ or ‘negative’ values in the same assay then split them into separate ‘positive’ and ‘negative’ assays.</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Scan m/z Range</t>
+  </si>
+  <si>
+    <t>The range used in the assay.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Instrument</t>
+  </si>
+  <si>
+    <t>Add the full name of the mass spectrometer/detector you used for this assay, including the instrument manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Ion Source</t>
+  </si>
+  <si>
+    <t>Where applicable to the instrument.</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Mass Analyzer</t>
+  </si>
+  <si>
+    <t>The analyser/detector of the mass fragments generated during the assay,</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - MS Assay Name</t>
+  </si>
+  <si>
+    <t>This can be, but doesn’t have to be, the same as the ‘Sample Name’</t>
+  </si>
+  <si>
+    <t>Term Source REF [label] (#h; #tNFDI4PSO:0000079)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [label] (#h; #tNFDI4PSO:0000079)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [mobile phase] (#h; #tNFDI4PSO:0000080)</t>
+  </si>
+  <si>
+    <t>Term Source REF [mobile phase] (#h; #tNFDI4PSO:0000080)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [elution] (#h; #tNFDI4PSO:0000081)</t>
+  </si>
+  <si>
+    <t>Term Source REF [elution] (#h; #tNFDI4PSO:0000081)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,6 +796,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -742,7 +903,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,13 +1020,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{751FC18E-D306-8B42-912B-598F45328FEF}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -928,57 +1110,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BA91F90-A206-C24A-B071-E1351392860E}" name="annotationTable" displayName="annotationTable" ref="D2:BA3" totalsRowShown="0">
-  <autoFilter ref="D2:BA3" xr:uid="{155D8245-62B7-F340-A809-633676FF14D5}"/>
-  <tableColumns count="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BA91F90-A206-C24A-B071-E1351392860E}" name="annotationTable" displayName="annotationTable" ref="D2:BJ3" totalsRowShown="0">
+  <autoFilter ref="D2:BJ3" xr:uid="{155D8245-62B7-F340-A809-633676FF14D5}"/>
+  <tableColumns count="59">
     <tableColumn id="1" xr3:uid="{BBBF64BA-87C6-D34E-A6CD-4299F4D962C8}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{14AC94B4-25B3-E44B-8B75-F5DA7ADF4505}" name="Sample Name"/>
-    <tableColumn id="3" xr3:uid="{DE8A40D7-A9A3-6D44-A444-4CDA584115FB}" name="Parameter [MS sample post-extraction]" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{DE8A40D7-A9A3-6D44-A444-4CDA584115FB}" name="Parameter [MS sample post-extraction]" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{91DB6965-9407-084F-B87C-167B363C8F64}" name="Term Source REF [MS sample post-extraction] (#h; #tNFDI4PSO:0000043)"/>
     <tableColumn id="5" xr3:uid="{8F068F1B-0799-934A-A950-0CCA864FA729}" name="Term Accession Number [MS sample post-extraction] (#h; #tNFDI4PSO:0000043)"/>
-    <tableColumn id="6" xr3:uid="{C6859ADD-6217-6046-B9CE-0E2C44AEB18F}" name="Parameter [MS sample resuspension]" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C6859ADD-6217-6046-B9CE-0E2C44AEB18F}" name="Parameter [MS sample resuspension]" dataDxfId="17"/>
     <tableColumn id="7" xr3:uid="{7FBCD097-8CAE-F140-921C-B77023BC4AE2}" name="Term Source REF [MS sample resuspension] (#h; #tNFDI4PSO:0000044)"/>
     <tableColumn id="8" xr3:uid="{81B6A235-8405-DD4A-8C68-E37AC0D99B1B}" name="Term Accession Number [MS sample resuspension] (#h; #tNFDI4PSO:0000044)"/>
-    <tableColumn id="9" xr3:uid="{0D61368D-553F-1949-B1E3-71D3E20AD860}" name="Parameter [MS sample type]" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{0D61368D-553F-1949-B1E3-71D3E20AD860}" name="Parameter [MS sample type]" dataDxfId="16"/>
     <tableColumn id="10" xr3:uid="{6179952F-0BCA-CF4E-944F-EB19C4832C67}" name="Term Source REF [MS sample type] (#h; #tNFDI4PSO:0000045)"/>
     <tableColumn id="11" xr3:uid="{994D6D0B-5285-DE4E-95A4-E184360E374C}" name="Term Accession Number [MS sample type] (#h; #tNFDI4PSO:0000045)"/>
-    <tableColumn id="12" xr3:uid="{B56199D0-4A72-9A48-A183-6470EDD554B1}" name="Parameter [MS derivatization]" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{B56199D0-4A72-9A48-A183-6470EDD554B1}" name="Parameter [MS derivatization]" dataDxfId="15"/>
     <tableColumn id="13" xr3:uid="{2D30CB05-A2E2-F747-B469-07C250031A33}" name="Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
     <tableColumn id="14" xr3:uid="{6110C472-0713-954C-9FD7-812784023EE1}" name="Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
-    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="11"/>
+    <tableColumn id="51" xr3:uid="{554B6563-D38B-46C3-A7D4-BF17E7735C26}" name="Parameter [label]" dataDxfId="2"/>
+    <tableColumn id="55" xr3:uid="{0D4DB16D-2B55-49F2-B11B-157D5B2B9BFE}" name="Term Source REF [label] (#h; #tNFDI4PSO:0000079)"/>
+    <tableColumn id="59" xr3:uid="{078026AD-3C19-4E75-9D4B-210B925CD75D}" name="Term Accession Number [label] (#h; #tNFDI4PSO:0000079)"/>
+    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="14"/>
     <tableColumn id="19" xr3:uid="{93F305FB-AF63-0547-9A9E-9316392B763C}" name="Term Source REF [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
     <tableColumn id="20" xr3:uid="{036AA641-2BC0-5847-B2EF-7FA1822B2E7C}" name="Term Accession Number [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
-    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="13"/>
     <tableColumn id="22" xr3:uid="{9B4B8450-0F52-524D-BC1F-8E8E4F80A6BE}" name="Term Source REF [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
     <tableColumn id="23" xr3:uid="{2C883FF4-82A2-EF44-8B01-97DEF7569A6D}" name="Term Accession Number [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
-    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="12"/>
     <tableColumn id="25" xr3:uid="{B270572B-8B22-1B4F-9EC7-50CCCD074C18}" name="Term Source REF [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
     <tableColumn id="26" xr3:uid="{FD917BD1-F453-8F4C-BBB1-50D7883F34ED}" name="Term Accession Number [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
-    <tableColumn id="15" xr3:uid="{B77278E7-9132-F84E-8F09-B3C5A6FCEB98}" name="Parameter [Chromatography column model]" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{B77278E7-9132-F84E-8F09-B3C5A6FCEB98}" name="Parameter [Chromatography column model]" dataDxfId="11"/>
     <tableColumn id="16" xr3:uid="{C8D2A8BF-92D3-8844-B3A5-624551FA014E}" name="Term Source REF [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
     <tableColumn id="17" xr3:uid="{1DBC3227-CDE2-F448-A105-909606EBE21D}" name="Term Accession Number [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
-    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="10"/>
     <tableColumn id="28" xr3:uid="{A4809FDB-124E-3C42-BAE1-11373D15BF08}" name="Term Source REF [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
     <tableColumn id="29" xr3:uid="{FA85BE75-6B6C-7140-AC46-8BA24514D954}" name="Term Accession Number [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
-    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="6"/>
+    <tableColumn id="61" xr3:uid="{91FBB916-95C1-4130-99F9-3C605D462F08}" name="Parameter [mobile phase]" dataDxfId="1"/>
+    <tableColumn id="62" xr3:uid="{5F39373C-7B4A-419A-A832-D442EDFF6D75}" name="Term Source REF [mobile phase] (#h; #tNFDI4PSO:0000080)"/>
+    <tableColumn id="63" xr3:uid="{9455D16F-3EE2-436E-B377-9A561EBF3A05}" name="Term Accession Number [mobile phase] (#h; #tNFDI4PSO:0000080)"/>
+    <tableColumn id="64" xr3:uid="{516D4528-3375-4A12-832E-AA36EF0EDBC1}" name="Parameter [elution]" dataDxfId="0"/>
+    <tableColumn id="65" xr3:uid="{958983F7-D491-4988-AE0B-A0A895FEFA61}" name="Term Source REF [elution] (#h; #tNFDI4PSO:0000081)"/>
+    <tableColumn id="66" xr3:uid="{A75D43C8-D402-4832-B200-1037B0DBB096}" name="Term Accession Number [elution] (#h; #tNFDI4PSO:0000081)"/>
+    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="9"/>
     <tableColumn id="31" xr3:uid="{8CE758DF-293A-5B43-8923-E07BBEA300B9}" name="Term Source REF [scan polarity] (#h; #tMS:1000465)"/>
     <tableColumn id="32" xr3:uid="{C2D1CF91-64E8-8844-B84E-0198C9EBC687}" name="Term Accession Number [scan polarity] (#h; #tMS:1000465)"/>
-    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="8"/>
     <tableColumn id="34" xr3:uid="{720A408D-0D3D-5A47-9C32-FA091FF2BBA5}" name="Term Source REF [scan window lower limit] (#h; #tMS:1000501)"/>
     <tableColumn id="35" xr3:uid="{10AC5530-C162-4F4B-B33D-69144D995141}" name="Term Accession Number [scan window lower limit] (#h; #tMS:1000501)"/>
-    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="7"/>
     <tableColumn id="37" xr3:uid="{8001FAB7-F714-324C-B592-D83361B52D1A}" name="Term Source REF [scan window upper limit] (#h; #tMS:1000500)"/>
     <tableColumn id="38" xr3:uid="{09050567-9154-5644-9F7E-7A35F81C36C5}" name="Term Accession Number [scan window upper limit] (#h; #tMS:1000500)"/>
-    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="6"/>
     <tableColumn id="40" xr3:uid="{3B19E320-D898-6947-A400-B7D35D58F1A6}" name="Term Source REF [instrument model] (#h; #tMS:1000031)"/>
     <tableColumn id="41" xr3:uid="{14CC0697-3DFB-3447-B1FD-767F08108295}" name="Term Accession Number [instrument model] (#h; #tMS:1000031)"/>
-    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="2"/>
+    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="5"/>
     <tableColumn id="43" xr3:uid="{5BD69720-0711-3440-BFAD-856D20CC0859}" name="Term Source REF [ionization type] (#h; #tMS:1000008)"/>
     <tableColumn id="44" xr3:uid="{ED78172F-0957-0649-9712-53DC91AAEF41}" name="Term Accession Number [ionization type] (#h; #tMS:1000008)"/>
-    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="1"/>
+    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="4"/>
     <tableColumn id="46" xr3:uid="{E1C36D22-2A7B-F04A-AF75-00C1C8C9CAF4}" name="Term Source REF [mass analyzer type] (#h; #tMS:1000443)"/>
     <tableColumn id="47" xr3:uid="{F695DECA-D1D9-A542-8FEF-479135275C4A}" name="Term Accession Number [mass analyzer type] (#h; #tMS:1000443)"/>
-    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="0"/>
+    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="3"/>
     <tableColumn id="49" xr3:uid="{9E7C28E6-2B09-5A4D-BEA2-E89CA9B02622}" name="Term Source REF [detector type] (#h; #tMS:1000026)"/>
     <tableColumn id="50" xr3:uid="{2EAE4DF7-6E4D-8044-9A56-E7115F15BB64}" name="Term Accession Number [detector type] (#h; #tMS:1000026)"/>
   </tableColumns>
@@ -1283,7 +1474,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="597" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1301,13 +1492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F31B6-C4E7-AF4A-AFC7-8DE959780CB6}">
-  <dimension ref="A1:BA30"/>
+  <dimension ref="A1:BJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1315,60 +1506,69 @@
     <col min="1" max="1" width="32.5" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="14"/>
-    <col min="4" max="4" width="14.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.875" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="72" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="36" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.875" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="70" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="27.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.625" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="62.875" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="40.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.875" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="64" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="46.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="72.625" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="78.875" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="46.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="74" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="80.125" style="14" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="40.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="68" style="14" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="74.125" style="14" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="52.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="69.5" style="14" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="75.875" style="14" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="67" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="74.875" style="14" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="81.125" style="14" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="37.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="47.625" style="14" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="53.875" style="14" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="37.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="57.625" style="14" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="63.875" style="14" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="37.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="57.625" style="14" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="63.875" style="14" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="37.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="52" style="14" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="58.125" style="14" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="37.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="49.375" style="14" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="55.625" style="14" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="37.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="53.375" style="14" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="59.5" style="14" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="37.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="48.125" style="14" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="54.375" style="14" hidden="1" customWidth="1"/>
-    <col min="54" max="16384" width="37.5" style="14"/>
+    <col min="4" max="4" width="42.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.125" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="73.875" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="38" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.25" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="72" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.625" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="64.375" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="42.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.875" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="65.75" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="40.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.75" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="54.625" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="49.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="75" style="14" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="81.75" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="49.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="76.125" style="14" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="83" style="14" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="42.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="69.875" style="14" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="76.75" style="14" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="64.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="71.5" style="14" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="78.25" style="14" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="68.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="77" style="14" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="83.75" style="14" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="46.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="55.5" style="14" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="62.125" style="14" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="42.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="53.125" style="14" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="60" style="14" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="48.625" style="14" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="55.25" style="14" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="58.875" style="14" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="65.75" style="14" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="59" style="14" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="65.875" style="14" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="53.625" style="14" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="60.5" style="14" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="52.5" style="14" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="58.875" style="14" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="54.25" style="14" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="60.875" style="14" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="49.875" style="14" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="56.5" style="14" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="37.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
@@ -1425,9 +1625,18 @@
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
-      <c r="BA1" s="2"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>144</v>
       </c>
@@ -1476,115 +1685,142 @@
         <v>13</v>
       </c>
       <c r="R2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T2" t="s">
+        <v>222</v>
+      </c>
+      <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>19</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>132</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP2" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AQ2" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AR2" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AS2" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>33</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>34</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>35</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>37</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>38</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>41</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>42</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>43</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>45</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>144</v>
       </c>
@@ -1640,8 +1876,17 @@
       <c r="AY3" s="3"/>
       <c r="AZ3"/>
       <c r="BA3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1695,8 +1940,15 @@
       <c r="AY4" s="15"/>
       <c r="AZ4" s="15"/>
       <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>146</v>
       </c>
@@ -1725,65 +1977,76 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
-      <c r="AJ5" s="16">
-        <v>50</v>
+      <c r="AJ5" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-      <c r="AM5" s="16">
-        <v>1300</v>
+      <c r="AM5" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
       <c r="AP5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>1300</v>
       </c>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
+      <c r="AY5" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="AZ5" s="16"/>
       <c r="BA5" s="16"/>
+      <c r="BB5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH5" s="16"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>146</v>
       </c>
@@ -1812,61 +2075,72 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="U6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="AD6" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
-      <c r="AG6" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
-      <c r="AJ6" s="16">
-        <v>60</v>
+      <c r="AJ6" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="AK6" s="16"/>
       <c r="AL6" s="16"/>
-      <c r="AM6" s="16">
-        <v>1200</v>
+      <c r="AM6" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="AN6" s="16"/>
       <c r="AO6" s="16"/>
       <c r="AP6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="AS6" s="16">
+        <v>60</v>
+      </c>
+      <c r="AV6" s="16">
+        <v>1200</v>
       </c>
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
+      <c r="AY6" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="AZ6" s="16"/>
       <c r="BA6" s="16"/>
+      <c r="BB6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH6" s="16"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>146</v>
       </c>
@@ -1892,14 +2166,12 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="U7" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
@@ -1912,34 +2184,37 @@
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
-      <c r="AJ7" s="16">
-        <v>50</v>
-      </c>
+      <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="16"/>
-      <c r="AM7" s="16">
-        <v>650</v>
-      </c>
+      <c r="AM7" s="16"/>
       <c r="AN7" s="16"/>
       <c r="AO7" s="16"/>
-      <c r="AP7" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AS7" s="16">
+        <v>50</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>650</v>
+      </c>
       <c r="AW7" s="16"/>
       <c r="AX7" s="16"/>
-      <c r="AY7" s="16"/>
+      <c r="AY7" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="AZ7" s="16"/>
       <c r="BA7" s="16"/>
+      <c r="BB7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>146</v>
       </c>
@@ -1965,25 +2240,23 @@
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="16" t="s">
-        <v>85</v>
-      </c>
+      <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="U8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
+      <c r="AD8" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="AE8" s="16"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
@@ -1996,21 +2269,24 @@
       <c r="AN8" s="16"/>
       <c r="AO8" s="16"/>
       <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
+      <c r="AS8" s="16"/>
       <c r="AV8" s="16"/>
       <c r="AW8" s="16"/>
       <c r="AX8" s="16"/>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
       <c r="BA8" s="16"/>
+      <c r="BB8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>146</v>
       </c>
@@ -2032,23 +2308,21 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="U9" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
+      <c r="AD9" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
@@ -2060,22 +2334,25 @@
       <c r="AM9" s="16"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="16"/>
-      <c r="AP9" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
+      <c r="AP9" s="16"/>
       <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
       <c r="AV9" s="16"/>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
+      <c r="AY9" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="AZ9" s="16"/>
       <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
@@ -2099,8 +2376,6 @@
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -2120,8 +2395,6 @@
       <c r="AN10" s="16"/>
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
@@ -2131,8 +2404,15 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
       <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2154,8 +2434,6 @@
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
@@ -2175,8 +2453,6 @@
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
       <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
@@ -2186,8 +2462,15 @@
       <c r="AY11" s="15"/>
       <c r="AZ11" s="15"/>
       <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
     </row>
-    <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
@@ -2220,67 +2503,76 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="17" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="AH12" s="17"/>
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
       <c r="AM12" s="17" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="AN12" s="17"/>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
+        <v>110</v>
+      </c>
       <c r="AS12" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AT12" s="17"/>
       <c r="AU12" s="17"/>
       <c r="AV12" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AW12" s="17"/>
       <c r="AX12" s="17"/>
       <c r="AY12" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AZ12" s="17"/>
       <c r="BA12" s="17"/>
+      <c r="BB12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC12" s="17"/>
+      <c r="BD12" s="17"/>
+      <c r="BE12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF12" s="17"/>
+      <c r="BG12" s="17"/>
+      <c r="BH12" s="17" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
@@ -2313,67 +2605,76 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AA13" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
       <c r="AD13" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
       <c r="AG13" s="18" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="AH13" s="18"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18"/>
       <c r="AM13" s="18" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
+        <v>137</v>
+      </c>
       <c r="AS13" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AT13" s="18"/>
       <c r="AU13" s="18"/>
       <c r="AV13" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AW13" s="18"/>
       <c r="AX13" s="18"/>
       <c r="AY13" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
+      <c r="BB13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>147</v>
       </c>
@@ -2397,12 +2698,12 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="R14" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
       <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -2412,43 +2713,52 @@
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
-      <c r="AG14" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="19" t="s">
-        <v>121</v>
+      <c r="AJ14" s="46" t="s">
+        <v>181</v>
       </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
-      <c r="AM14" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
+      <c r="AM14" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
       <c r="AP14" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
+        <v>120</v>
+      </c>
       <c r="AS14" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AT14" s="19"/>
       <c r="AU14" s="19"/>
       <c r="AV14" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AW14" s="19"/>
       <c r="AX14" s="19"/>
       <c r="AY14" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AZ14" s="19"/>
       <c r="BA14" s="19"/>
+      <c r="BB14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="19"/>
+      <c r="BH14" s="19" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>147</v>
       </c>
@@ -2478,56 +2788,63 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21" t="s">
-        <v>117</v>
-      </c>
+      <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
+      <c r="AA15" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
-      <c r="AG15" s="21" t="s">
-        <v>117</v>
-      </c>
+      <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
       <c r="AJ15" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AN15" s="21"/>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
       <c r="AS15" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT15" s="21"/>
       <c r="AU15" s="21"/>
       <c r="AV15" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AW15" s="21"/>
       <c r="AX15" s="21"/>
       <c r="AY15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>153</v>
       </c>
@@ -2555,14 +2872,12 @@
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="20"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
@@ -2578,25 +2893,32 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
+      <c r="AM16" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20"/>
-      <c r="AP16" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
+      <c r="AP16" s="20"/>
       <c r="AS16" s="20"/>
       <c r="AT16" s="20"/>
       <c r="AU16" s="20"/>
       <c r="AV16" s="20"/>
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
-      <c r="AY16" s="20"/>
+      <c r="AY16" s="45" t="s">
+        <v>175</v>
+      </c>
       <c r="AZ16" s="20"/>
       <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
     </row>
-    <row r="17" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>153</v>
       </c>
@@ -2622,20 +2944,18 @@
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
-      <c r="AD17" s="38" t="s">
-        <v>171</v>
-      </c>
+      <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
+      <c r="AG17" s="38" t="s">
+        <v>171</v>
+      </c>
       <c r="AH17" s="21"/>
       <c r="AI17" s="21"/>
       <c r="AJ17" s="21"/>
@@ -2645,8 +2965,6 @@
       <c r="AN17" s="21"/>
       <c r="AO17" s="21"/>
       <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
       <c r="AS17" s="21"/>
       <c r="AT17" s="21"/>
       <c r="AU17" s="21"/>
@@ -2656,8 +2974,15 @@
       <c r="AY17" s="21"/>
       <c r="AZ17" s="21"/>
       <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
     </row>
-    <row r="18" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>156</v>
       </c>
@@ -2683,22 +3008,20 @@
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
-      <c r="R18" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="X18" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
+      <c r="AA18" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
@@ -2714,8 +3037,6 @@
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
       <c r="AT18" s="19"/>
       <c r="AU18" s="19"/>
@@ -2725,8 +3046,15 @@
       <c r="AY18" s="19"/>
       <c r="AZ18" s="19"/>
       <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="19"/>
+      <c r="BF18" s="19"/>
+      <c r="BG18" s="19"/>
+      <c r="BH18" s="19"/>
     </row>
-    <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>156</v>
       </c>
@@ -2756,14 +3084,12 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
+      <c r="AA19" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
@@ -2779,8 +3105,6 @@
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
       <c r="AS19" s="19"/>
       <c r="AT19" s="19"/>
       <c r="AU19" s="19"/>
@@ -2790,8 +3114,15 @@
       <c r="AY19" s="19"/>
       <c r="AZ19" s="19"/>
       <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19"/>
+      <c r="BH19" s="19"/>
     </row>
-    <row r="20" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
@@ -2817,8 +3148,6 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
@@ -2838,8 +3167,6 @@
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
       <c r="AU20" s="19"/>
@@ -2849,8 +3176,15 @@
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
       <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
+      <c r="BF20" s="19"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
     </row>
-    <row r="21" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>156</v>
       </c>
@@ -2883,11 +3217,7 @@
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
+      <c r="U21" s="19"/>
       <c r="X21" s="44" t="s">
         <v>173</v>
       </c>
@@ -2908,24 +3238,26 @@
       </c>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="AJ21" s="47"/>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
       <c r="AM21" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AS21" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
+      <c r="AT21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU21" s="44" t="s">
+        <v>173</v>
+      </c>
       <c r="AV21" s="44" t="s">
         <v>173</v>
       </c>
@@ -2936,8 +3268,25 @@
       </c>
       <c r="AZ21" s="19"/>
       <c r="BA21" s="19"/>
+      <c r="BB21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="BF21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG21" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH21" s="44" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2959,8 +3308,6 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
       <c r="X22" s="22"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
@@ -2991,8 +3338,15 @@
       <c r="AY22" s="22"/>
       <c r="AZ22" s="22"/>
       <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="22"/>
+      <c r="BF22" s="22"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="22"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -3014,8 +3368,6 @@
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
       <c r="X23" s="22"/>
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
@@ -3046,8 +3398,15 @@
       <c r="AY23" s="22"/>
       <c r="AZ23" s="22"/>
       <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="22"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="22"/>
+      <c r="BH23" s="22"/>
     </row>
-    <row r="24" spans="1:53" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -3058,32 +3417,40 @@
         <v>162</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="E24" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
+      <c r="O24" s="48" t="s">
+        <v>190</v>
+      </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
+      <c r="R24" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="S24" s="50"/>
       <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
+      <c r="U24" s="50" t="s">
+        <v>194</v>
+      </c>
       <c r="X24" s="19"/>
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
+      <c r="AA24" s="46"/>
       <c r="AB24" s="19"/>
       <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
+      <c r="AD24" s="48" t="s">
+        <v>198</v>
+      </c>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
@@ -3095,20 +3462,49 @@
       <c r="AM24" s="19"/>
       <c r="AN24" s="19"/>
       <c r="AO24" s="19"/>
-      <c r="AP24" s="19"/>
+      <c r="AP24" s="50" t="s">
+        <v>208</v>
+      </c>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="19"/>
-      <c r="AV24" s="19"/>
+      <c r="AS24" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT24" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU24" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="AV24" s="48" t="s">
+        <v>210</v>
+      </c>
       <c r="AW24" s="19"/>
       <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
+      <c r="AY24" s="50" t="s">
+        <v>213</v>
+      </c>
       <c r="AZ24" s="19"/>
       <c r="BA24" s="19"/>
+      <c r="BB24" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF24" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="BG24" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH24" s="50" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -3119,32 +3515,40 @@
         <v>164</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="E25" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
+      <c r="O25" s="48" t="s">
+        <v>191</v>
+      </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
+      <c r="R25" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="S25" s="50"/>
       <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
+      <c r="U25" s="50" t="s">
+        <v>195</v>
+      </c>
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
+      <c r="AA25" s="46"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
+      <c r="AD25" s="48" t="s">
+        <v>199</v>
+      </c>
       <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
@@ -3156,20 +3560,49 @@
       <c r="AM25" s="19"/>
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
+      <c r="AP25" s="50" t="s">
+        <v>209</v>
+      </c>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
+      <c r="AS25" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT25" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU25" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV25" s="48" t="s">
+        <v>211</v>
+      </c>
       <c r="AW25" s="19"/>
       <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
+      <c r="AY25" s="50" t="s">
+        <v>214</v>
+      </c>
       <c r="AZ25" s="19"/>
       <c r="BA25" s="19"/>
+      <c r="BB25" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF25" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG25" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="BH25" s="50" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="26" spans="1:53" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -3180,32 +3613,40 @@
         <v>166</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="E26" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
+      <c r="O26" s="48" t="s">
+        <v>192</v>
+      </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
+      <c r="R26" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="S26" s="50"/>
       <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
+      <c r="U26" s="50" t="s">
+        <v>196</v>
+      </c>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
+      <c r="AA26" s="46"/>
       <c r="AB26" s="19"/>
       <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
+      <c r="AD26" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
@@ -3217,20 +3658,49 @@
       <c r="AM26" s="19"/>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
+      <c r="AP26" s="50" t="s">
+        <v>196</v>
+      </c>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
+      <c r="AS26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV26" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AW26" s="19"/>
       <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
+      <c r="AY26" s="50" t="s">
+        <v>196</v>
+      </c>
       <c r="AZ26" s="19"/>
       <c r="BA26" s="19"/>
+      <c r="BB26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF26" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG26" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH26" s="50" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -3241,32 +3711,40 @@
         <v>168</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="E27" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
+      <c r="O27" s="48" t="s">
+        <v>193</v>
+      </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
+      <c r="R27" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="S27" s="50"/>
       <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
+      <c r="U27" s="50" t="s">
+        <v>197</v>
+      </c>
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
+      <c r="AA27" s="46"/>
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
+      <c r="AD27" s="48" t="s">
+        <v>197</v>
+      </c>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
@@ -3278,20 +3756,49 @@
       <c r="AM27" s="19"/>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
+      <c r="AP27" s="50" t="s">
+        <v>197</v>
+      </c>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
-      <c r="AV27" s="19"/>
+      <c r="AS27" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT27" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU27" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV27" s="48" t="s">
+        <v>212</v>
+      </c>
       <c r="AW27" s="19"/>
       <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
+      <c r="AY27" s="50" t="s">
+        <v>197</v>
+      </c>
       <c r="AZ27" s="19"/>
       <c r="BA27" s="19"/>
+      <c r="BB27" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF27" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG27" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH27" s="50" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -3303,10 +3810,10 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -3319,8 +3826,6 @@
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
       <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
@@ -3351,8 +3856,15 @@
       <c r="AY28" s="19"/>
       <c r="AZ28" s="19"/>
       <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="19"/>
+      <c r="BH28" s="19"/>
     </row>
-    <row r="29" spans="1:53" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -3380,8 +3892,6 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
@@ -3412,8 +3922,15 @@
       <c r="AY29" s="21"/>
       <c r="AZ29" s="21"/>
       <c r="BA29" s="21"/>
+      <c r="BB29" s="21"/>
+      <c r="BC29" s="21"/>
+      <c r="BD29" s="21"/>
+      <c r="BE29" s="21"/>
+      <c r="BF29" s="21"/>
+      <c r="BG29" s="21"/>
+      <c r="BH29" s="21"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -3435,8 +3952,6 @@
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
@@ -3467,23 +3982,32 @@
       <c r="AY30" s="15"/>
       <c r="AZ30" s="15"/>
       <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U18" r:id="rId1" display="http://purl.obolibrary.org/obo/OBI_0000555" xr:uid="{0F4407F2-2D05-9749-8F4A-097A23356DC6}"/>
-    <hyperlink ref="AS14" r:id="rId2" xr:uid="{E0715D4C-5FD8-164C-8257-A0A0BB5625EF}"/>
-    <hyperlink ref="AY14" r:id="rId3" xr:uid="{1118F33C-B27D-7644-9A23-642B8181A934}"/>
-    <hyperlink ref="AP14" r:id="rId4" xr:uid="{5C10F8DF-4069-1E45-BEC7-4ABBE409B1F1}"/>
-    <hyperlink ref="AM14" r:id="rId5" xr:uid="{7B350DBC-6C76-794D-85BA-8624BC573C2E}"/>
-    <hyperlink ref="AJ14" r:id="rId6" xr:uid="{B99BA9A9-46C5-1B48-AE21-57ECD9E93AB8}"/>
-    <hyperlink ref="AG14" r:id="rId7" xr:uid="{024CDF76-7112-4C41-944B-513D5B8E37D7}"/>
-    <hyperlink ref="AV14" r:id="rId8" xr:uid="{41401BAE-D4B2-034D-BAB8-7E0B9A642874}"/>
-    <hyperlink ref="O19" r:id="rId9" xr:uid="{BB9B92EF-9404-474F-8537-A82CE94282EE}"/>
-    <hyperlink ref="AD17" r:id="rId10" xr:uid="{EFE5B530-29C3-0D4D-A786-0D28594D7F0B}"/>
+    <hyperlink ref="X18" r:id="rId1" display="http://purl.obolibrary.org/obo/OBI_0000555" xr:uid="{0F4407F2-2D05-9749-8F4A-097A23356DC6}"/>
+    <hyperlink ref="BB14" r:id="rId2" xr:uid="{E0715D4C-5FD8-164C-8257-A0A0BB5625EF}"/>
+    <hyperlink ref="BH14" r:id="rId3" xr:uid="{1118F33C-B27D-7644-9A23-642B8181A934}"/>
+    <hyperlink ref="AY14" r:id="rId4" xr:uid="{5C10F8DF-4069-1E45-BEC7-4ABBE409B1F1}"/>
+    <hyperlink ref="AV14" r:id="rId5" xr:uid="{7B350DBC-6C76-794D-85BA-8624BC573C2E}"/>
+    <hyperlink ref="BE14" r:id="rId6" xr:uid="{41401BAE-D4B2-034D-BAB8-7E0B9A642874}"/>
+    <hyperlink ref="O19" r:id="rId7" xr:uid="{BB9B92EF-9404-474F-8537-A82CE94282EE}"/>
+    <hyperlink ref="AG17" r:id="rId8" xr:uid="{EFE5B530-29C3-0D4D-A786-0D28594D7F0B}"/>
+    <hyperlink ref="AS14" r:id="rId9" xr:uid="{B99BA9A9-46C5-1B48-AE21-57ECD9E93AB8}"/>
+    <hyperlink ref="AP14" r:id="rId10" xr:uid="{08527ECA-BE56-4143-8267-4AB85742F4F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE846D-86CB-4259-8286-A0290A6DB399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BEA6F-9698-4179-AD4D-D2C7263EB8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -1307,7 +1307,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_MetabolomicsMassSpec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B57057-18F0-4DD6-BF76-3D83B18FB252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD08884-0AD0-264A-A743-27C6B9B9961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -1034,9 +1034,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{751FC18E-D306-8B42-912B-598F45328FEF}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -1127,49 +1127,49 @@
     <tableColumn id="12" xr3:uid="{B56199D0-4A72-9A48-A183-6470EDD554B1}" name="Parameter [MS derivatization]" dataDxfId="15"/>
     <tableColumn id="13" xr3:uid="{2D30CB05-A2E2-F747-B469-07C250031A33}" name="Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
     <tableColumn id="14" xr3:uid="{6110C472-0713-954C-9FD7-812784023EE1}" name="Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
-    <tableColumn id="51" xr3:uid="{554B6563-D38B-46C3-A7D4-BF17E7735C26}" name="Parameter [label]" dataDxfId="2"/>
+    <tableColumn id="51" xr3:uid="{554B6563-D38B-46C3-A7D4-BF17E7735C26}" name="Parameter [label]" dataDxfId="14"/>
     <tableColumn id="55" xr3:uid="{0D4DB16D-2B55-49F2-B11B-157D5B2B9BFE}" name="Term Source REF [label] (#h; #tNFDI4PSO:0000079)"/>
     <tableColumn id="59" xr3:uid="{078026AD-3C19-4E75-9D4B-210B925CD75D}" name="Term Accession Number [label] (#h; #tNFDI4PSO:0000079)"/>
-    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="13"/>
     <tableColumn id="19" xr3:uid="{93F305FB-AF63-0547-9A9E-9316392B763C}" name="Term Source REF [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
     <tableColumn id="20" xr3:uid="{036AA641-2BC0-5847-B2EF-7FA1822B2E7C}" name="Term Accession Number [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
-    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="12"/>
     <tableColumn id="22" xr3:uid="{9B4B8450-0F52-524D-BC1F-8E8E4F80A6BE}" name="Term Source REF [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
     <tableColumn id="23" xr3:uid="{2C883FF4-82A2-EF44-8B01-97DEF7569A6D}" name="Term Accession Number [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
-    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="11"/>
     <tableColumn id="25" xr3:uid="{B270572B-8B22-1B4F-9EC7-50CCCD074C18}" name="Term Source REF [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
     <tableColumn id="26" xr3:uid="{FD917BD1-F453-8F4C-BBB1-50D7883F34ED}" name="Term Accession Number [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
-    <tableColumn id="15" xr3:uid="{B77278E7-9132-F84E-8F09-B3C5A6FCEB98}" name="Parameter [Chromatography column model]" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{B77278E7-9132-F84E-8F09-B3C5A6FCEB98}" name="Parameter [Chromatography column model]" dataDxfId="10"/>
     <tableColumn id="16" xr3:uid="{C8D2A8BF-92D3-8844-B3A5-624551FA014E}" name="Term Source REF [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
     <tableColumn id="17" xr3:uid="{1DBC3227-CDE2-F448-A105-909606EBE21D}" name="Term Accession Number [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
-    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="10"/>
+    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="9"/>
     <tableColumn id="28" xr3:uid="{A4809FDB-124E-3C42-BAE1-11373D15BF08}" name="Term Source REF [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
     <tableColumn id="29" xr3:uid="{FA85BE75-6B6C-7140-AC46-8BA24514D954}" name="Term Accession Number [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
-    <tableColumn id="61" xr3:uid="{91FBB916-95C1-4130-99F9-3C605D462F08}" name="Parameter [mobile phase]" dataDxfId="1"/>
+    <tableColumn id="61" xr3:uid="{91FBB916-95C1-4130-99F9-3C605D462F08}" name="Parameter [mobile phase]" dataDxfId="8"/>
     <tableColumn id="62" xr3:uid="{5F39373C-7B4A-419A-A832-D442EDFF6D75}" name="Term Source REF [mobile phase] (#h; #tNFDI4PSO:0000080)"/>
     <tableColumn id="63" xr3:uid="{9455D16F-3EE2-436E-B377-9A561EBF3A05}" name="Term Accession Number [mobile phase] (#h; #tNFDI4PSO:0000080)"/>
-    <tableColumn id="64" xr3:uid="{516D4528-3375-4A12-832E-AA36EF0EDBC1}" name="Parameter [elution]" dataDxfId="0"/>
+    <tableColumn id="64" xr3:uid="{516D4528-3375-4A12-832E-AA36EF0EDBC1}" name="Parameter [elution]" dataDxfId="7"/>
     <tableColumn id="65" xr3:uid="{958983F7-D491-4988-AE0B-A0A895FEFA61}" name="Term Source REF [elution] (#h; #tNFDI4PSO:0000081)"/>
     <tableColumn id="66" xr3:uid="{A75D43C8-D402-4832-B200-1037B0DBB096}" name="Term Accession Number [elution] (#h; #tNFDI4PSO:0000081)"/>
-    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="6"/>
     <tableColumn id="31" xr3:uid="{8CE758DF-293A-5B43-8923-E07BBEA300B9}" name="Term Source REF [scan polarity] (#h; #tMS:1000465)"/>
     <tableColumn id="32" xr3:uid="{C2D1CF91-64E8-8844-B84E-0198C9EBC687}" name="Term Accession Number [scan polarity] (#h; #tMS:1000465)"/>
-    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="8"/>
+    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="5"/>
     <tableColumn id="34" xr3:uid="{720A408D-0D3D-5A47-9C32-FA091FF2BBA5}" name="Term Source REF [scan window lower limit] (#h; #tMS:1000501)"/>
     <tableColumn id="35" xr3:uid="{10AC5530-C162-4F4B-B33D-69144D995141}" name="Term Accession Number [scan window lower limit] (#h; #tMS:1000501)"/>
-    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="7"/>
+    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="4"/>
     <tableColumn id="37" xr3:uid="{8001FAB7-F714-324C-B592-D83361B52D1A}" name="Term Source REF [scan window upper limit] (#h; #tMS:1000500)"/>
     <tableColumn id="38" xr3:uid="{09050567-9154-5644-9F7E-7A35F81C36C5}" name="Term Accession Number [scan window upper limit] (#h; #tMS:1000500)"/>
-    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="3"/>
     <tableColumn id="40" xr3:uid="{3B19E320-D898-6947-A400-B7D35D58F1A6}" name="Term Source REF [instrument model] (#h; #tMS:1000031)"/>
     <tableColumn id="41" xr3:uid="{14CC0697-3DFB-3447-B1FD-767F08108295}" name="Term Accession Number [instrument model] (#h; #tMS:1000031)"/>
-    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="5"/>
+    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="2"/>
     <tableColumn id="43" xr3:uid="{5BD69720-0711-3440-BFAD-856D20CC0859}" name="Term Source REF [ionization type] (#h; #tMS:1000008)"/>
     <tableColumn id="44" xr3:uid="{ED78172F-0957-0649-9712-53DC91AAEF41}" name="Term Accession Number [ionization type] (#h; #tMS:1000008)"/>
-    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="4"/>
+    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="1"/>
     <tableColumn id="46" xr3:uid="{E1C36D22-2A7B-F04A-AF75-00C1C8C9CAF4}" name="Term Source REF [mass analyzer type] (#h; #tMS:1000443)"/>
     <tableColumn id="47" xr3:uid="{F695DECA-D1D9-A542-8FEF-479135275C4A}" name="Term Accession Number [mass analyzer type] (#h; #tMS:1000443)"/>
-    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="3"/>
+    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="0"/>
     <tableColumn id="49" xr3:uid="{9E7C28E6-2B09-5A4D-BEA2-E89CA9B02622}" name="Term Source REF [detector type] (#h; #tMS:1000026)"/>
     <tableColumn id="50" xr3:uid="{2EAE4DF7-6E4D-8044-9A56-E7115F15BB64}" name="Term Accession Number [detector type] (#h; #tMS:1000026)"/>
   </tableColumns>
@@ -1178,7 +1178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1495,80 +1495,80 @@
   <dimension ref="A1:BJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="BE24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BH25" sqref="BH25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="14"/>
-    <col min="4" max="4" width="42.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.125" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="73.875" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="67.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="73.83203125" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="38" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.25" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="65.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="72" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.625" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="64.375" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="42.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.875" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="65.75" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="40.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.75" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="54.625" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="64.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="65.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="40.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="54.6640625" style="14" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="49.5" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="75" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="81.75" style="14" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="81.6640625" style="14" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="49.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="76.125" style="14" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="76.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="83" style="14" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="42.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="69.875" style="14" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="76.75" style="14" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="64.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="69.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="76.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="64.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="71.5" style="14" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="78.25" style="14" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="68.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="78.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="68.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="77" style="14" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="83.75" style="14" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="46.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="83.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="46.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="55.5" style="14" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="62.125" style="14" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="42.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="53.125" style="14" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="62.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="53.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="60" style="14" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="39.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="48.625" style="14" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="55.25" style="14" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="39.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="58.875" style="14" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="65.75" style="14" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="48.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="55.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="58.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="65.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="65.875" style="14" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="39.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="53.625" style="14" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="65.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="53.6640625" style="14" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="60.5" style="14" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="39.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="52.5" style="14" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="58.875" style="14" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="39.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="54.25" style="14" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="60.875" style="14" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="39.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="49.875" style="14" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="58.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="54.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="60.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="49.83203125" style="14" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="56.5" style="14" hidden="1" customWidth="1"/>
     <col min="63" max="16384" width="37.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="BI1" s="4"/>
       <c r="BJ1" s="2"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>144</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>144</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="BI3"/>
       <c r="BJ3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1948,7 +1948,7 @@
       <c r="BG4" s="15"/>
       <c r="BH4" s="15"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>146</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="BH5" s="16"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>146</v>
       </c>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="BH6" s="16"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>146</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="BG7" s="16"/>
       <c r="BH7" s="16"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>146</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="BG8" s="16"/>
       <c r="BH8" s="16"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>146</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2470,7 +2470,7 @@
       <c r="BG11" s="15"/>
       <c r="BH11" s="15"/>
     </row>
-    <row r="12" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>147</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>147</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>153</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="BG16" s="20"/>
       <c r="BH16" s="20"/>
     </row>
-    <row r="17" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>153</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="BG17" s="21"/>
       <c r="BH17" s="21"/>
     </row>
-    <row r="18" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>156</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="BG18" s="19"/>
       <c r="BH18" s="19"/>
     </row>
-    <row r="19" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>156</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="BG19" s="19"/>
       <c r="BH19" s="19"/>
     </row>
-    <row r="20" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="BG20" s="19"/>
       <c r="BH20" s="19"/>
     </row>
-    <row r="21" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>156</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3346,7 +3346,7 @@
       <c r="BG22" s="22"/>
       <c r="BH22" s="22"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -3406,7 +3406,7 @@
       <c r="BG23" s="22"/>
       <c r="BH23" s="22"/>
     </row>
-    <row r="24" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" ht="91" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="BG28" s="19"/>
       <c r="BH28" s="19"/>
     </row>
-    <row r="29" spans="1:60" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -3930,7 +3930,7 @@
       <c r="BG29" s="21"/>
       <c r="BH29" s="21"/>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_MetabolomicsMassSpec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD08884-0AD0-264A-A743-27C6B9B9961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CE1F1-A336-174B-8734-6E71011755BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="2480" yWindow="500" windowWidth="22920" windowHeight="17500" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
   <si>
     <t>Source Name</t>
   </si>
@@ -189,9 +180,6 @@
     <t>ER target term</t>
   </si>
   <si>
-    <t>Additional information</t>
-  </si>
-  <si>
     <t>User instruction</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
     <t>Unit: m/z</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0001485</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/MS_1000465</t>
   </si>
   <si>
@@ -417,18 +402,6 @@
     <t>http://purl.obolibrary.org/obo/MS_1000026</t>
   </si>
   <si>
-    <t>similar to http://purl.obolibrary.org/obo/OBI_0000555</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0001000</t>
-  </si>
-  <si>
-    <t>CHMO:0001485: derivatisation</t>
-  </si>
-  <si>
-    <t>similar to http://purl.obolibrary.org/obo/OBI_0000048</t>
-  </si>
-  <si>
     <t>Parameter [Chromatography column model]</t>
   </si>
   <si>
@@ -438,9 +411,6 @@
     <t>Term Accession Number [Chromatography column model] (#h; #tNFDI4PSO:0000048)</t>
   </si>
   <si>
-    <t>CHMO_0001000: chromatography</t>
-  </si>
-  <si>
     <t>Chromatography column type</t>
   </si>
   <si>
@@ -469,9 +439,6 @@
   </si>
   <si>
     <t>SWATE_annotation_table</t>
-  </si>
-  <si>
-    <t>SWATE templating version (July 26, 2021)</t>
   </si>
   <si>
     <t>content_examples</t>
@@ -553,25 +520,9 @@
     <t>Comments towards the original template author</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000614
-Although looking for a model name here</t>
-  </si>
-  <si>
-    <t>The name of the data file of this sample.</t>
-  </si>
-  <si>
-    <t>User instruction missing</t>
-  </si>
-  <si>
     <t>The model of the chromatography instrument used.</t>
   </si>
   <si>
-    <t>The model of the instrument model used.</t>
-  </si>
-  <si>
-    <t>The name of the input (the source) of this assay.</t>
-  </si>
-  <si>
     <t>A: H2O (0.1% formic acid), B: ACN (0.1% formic acid)</t>
   </si>
   <si>
@@ -720,6 +671,24 @@
   </si>
   <si>
     <t>Term Source REF [elution] (#h; #tNFDI4PSO:0000081)</t>
+  </si>
+  <si>
+    <t>The name of the instrument model used.</t>
+  </si>
+  <si>
+    <t>ER Additional information</t>
+  </si>
+  <si>
+    <t>SWATE templating version (August 18, 2021)</t>
+  </si>
+  <si>
+    <t>is_a term</t>
+  </si>
+  <si>
+    <t>Use to specify subclasses of existing terms</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
   </si>
 </sst>
 </file>
@@ -903,7 +872,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,20 +979,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1031,7 +988,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1492,13 +1458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F31B6-C4E7-AF4A-AFC7-8DE959780CB6}">
-  <dimension ref="A1:BJ30"/>
+  <dimension ref="A1:BJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="BE24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="24" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="BH25" sqref="BH25"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1506,8 +1472,8 @@
     <col min="1" max="1" width="32.5" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="14"/>
-    <col min="4" max="4" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.5" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="73.83203125" style="14" hidden="1" customWidth="1"/>
@@ -1570,11 +1536,11 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
-        <v>145</v>
+      <c r="C1" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1638,7 +1604,7 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1685,13 +1651,13 @@
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="S2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="T2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="U2" t="s">
         <v>14</v>
@@ -1721,13 +1687,13 @@
         <v>22</v>
       </c>
       <c r="AD2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AE2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AF2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AG2" t="s">
         <v>23</v>
@@ -1739,22 +1705,22 @@
         <v>25</v>
       </c>
       <c r="AJ2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AK2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AL2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="AM2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AO2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AP2" t="s">
         <v>26</v>
@@ -1822,7 +1788,7 @@
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1950,72 +1916,72 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
       <c r="AM5" s="16" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AN5" s="16"/>
       <c r="AO5" s="16"/>
       <c r="AP5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS5" s="16">
         <v>50</v>
@@ -2026,72 +1992,72 @@
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
       <c r="AY5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AZ5" s="16"/>
       <c r="BA5" s="16"/>
       <c r="BB5" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BC5" s="16"/>
       <c r="BD5" s="16"/>
       <c r="BE5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BF5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BG5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BH5" s="16"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
@@ -2099,17 +2065,17 @@
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AK6" s="16"/>
       <c r="AL6" s="16"/>
       <c r="AM6" s="16" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AN6" s="16"/>
       <c r="AO6" s="16"/>
       <c r="AP6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS6" s="16">
         <v>60</v>
@@ -2120,36 +2086,36 @@
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
       <c r="AY6" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ6" s="16"/>
       <c r="BA6" s="16"/>
       <c r="BB6" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BC6" s="16"/>
       <c r="BD6" s="16"/>
       <c r="BE6" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF6" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BG6" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BH6" s="16"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -2157,12 +2123,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -2170,7 +2136,7 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
@@ -2200,12 +2166,12 @@
       <c r="AW7" s="16"/>
       <c r="AX7" s="16"/>
       <c r="AY7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AZ7" s="16"/>
       <c r="BA7" s="16"/>
       <c r="BB7" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BC7" s="16"/>
       <c r="BD7" s="16"/>
@@ -2216,14 +2182,14 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -2231,12 +2197,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -2244,18 +2210,18 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE8" s="16"/>
       <c r="AF8" s="16"/>
@@ -2277,7 +2243,7 @@
       <c r="AZ8" s="16"/>
       <c r="BA8" s="16"/>
       <c r="BB8" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BC8" s="16"/>
       <c r="BD8" s="16"/>
@@ -2288,7 +2254,7 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2301,7 +2267,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -2312,7 +2278,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
@@ -2321,7 +2287,7 @@
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
@@ -2340,7 +2306,7 @@
       <c r="AW9" s="16"/>
       <c r="AX9" s="16"/>
       <c r="AY9" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AZ9" s="16"/>
       <c r="BA9" s="16"/>
@@ -2354,7 +2320,7 @@
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2472,217 +2438,217 @@
     </row>
     <row r="12" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
       <c r="AG12" s="17" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AH12" s="17"/>
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
       <c r="AM12" s="17" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AN12" s="17"/>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS12" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="AS12" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="AT12" s="17"/>
       <c r="AU12" s="17"/>
       <c r="AV12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AW12" s="17"/>
       <c r="AX12" s="17"/>
       <c r="AY12" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ12" s="17"/>
       <c r="BA12" s="17"/>
       <c r="BB12" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BC12" s="17"/>
       <c r="BD12" s="17"/>
       <c r="BE12" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BF12" s="17"/>
       <c r="BG12" s="17"/>
       <c r="BH12" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="X13" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AA13" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
       <c r="AD13" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
       <c r="AG13" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH13" s="18"/>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18"/>
       <c r="AM13" s="18" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AS13" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AT13" s="18"/>
       <c r="AU13" s="18"/>
       <c r="AV13" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AW13" s="18"/>
       <c r="AX13" s="18"/>
       <c r="AY13" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="18"/>
       <c r="BB13" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="BC13" s="18"/>
       <c r="BD13" s="18"/>
       <c r="BE13" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="BF13" s="18"/>
       <c r="BG13" s="18"/>
       <c r="BH13" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2699,7 +2665,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -2716,57 +2682,57 @@
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="46" t="s">
-        <v>181</v>
+      <c r="AJ14" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
-      <c r="AM14" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
+      <c r="AM14" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
       <c r="AP14" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AT14" s="19"/>
       <c r="AU14" s="19"/>
       <c r="AV14" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AW14" s="19"/>
       <c r="AX14" s="19"/>
       <c r="AY14" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AZ14" s="19"/>
       <c r="BA14" s="19"/>
       <c r="BB14" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC14" s="19"/>
       <c r="BD14" s="19"/>
       <c r="BE14" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BF14" s="19"/>
       <c r="BG14" s="19"/>
       <c r="BH14" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2780,7 +2746,7 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -2792,7 +2758,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
@@ -2803,127 +2769,127 @@
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
       <c r="AJ15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AN15" s="21"/>
       <c r="AO15" s="21"/>
       <c r="AP15" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS15" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="AS15" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="AT15" s="21"/>
       <c r="AU15" s="21"/>
       <c r="AV15" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AW15" s="21"/>
       <c r="AX15" s="21"/>
       <c r="AY15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AZ15" s="21"/>
       <c r="BA15" s="21"/>
       <c r="BB15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BC15" s="21"/>
       <c r="BD15" s="21"/>
       <c r="BE15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF15" s="21"/>
       <c r="BG15" s="21"/>
       <c r="BH15" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AS16" s="20"/>
-      <c r="AT16" s="20"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="20"/>
-      <c r="AX16" s="20"/>
-      <c r="AY16" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="20"/>
-      <c r="BC16" s="20"/>
-      <c r="BD16" s="20"/>
-      <c r="BE16" s="20"/>
-      <c r="BF16" s="20"/>
-      <c r="BG16" s="20"/>
-      <c r="BH16" s="20"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
     </row>
     <row r="17" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="21"/>
@@ -2953,9 +2919,7 @@
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
-      <c r="AG17" s="38" t="s">
-        <v>171</v>
-      </c>
+      <c r="AG17" s="38"/>
       <c r="AH17" s="21"/>
       <c r="AI17" s="21"/>
       <c r="AJ17" s="21"/>
@@ -2984,13 +2948,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -3003,25 +2967,17 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="19" t="s">
-        <v>129</v>
-      </c>
+      <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
-      <c r="U18" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>127</v>
-      </c>
+      <c r="U18" s="19"/>
+      <c r="X18" s="19"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
-      <c r="AA18" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="19"/>
@@ -3054,15 +3010,15 @@
       <c r="BG18" s="19"/>
       <c r="BH18" s="19"/>
     </row>
-    <row r="19" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -3075,9 +3031,7 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="O19" s="20"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
@@ -3087,9 +3041,7 @@
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
-      <c r="AA19" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="AA19" s="20"/>
       <c r="AB19" s="19"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
@@ -3122,14 +3074,16 @@
       <c r="BG19" s="19"/>
       <c r="BH19" s="19"/>
     </row>
-    <row r="20" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="27"/>
+    <row r="20" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -3141,7 +3095,7 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
@@ -3151,7 +3105,7 @@
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
+      <c r="AA20" s="20"/>
       <c r="AB20" s="19"/>
       <c r="AC20" s="19"/>
       <c r="AD20" s="19"/>
@@ -3184,468 +3138,358 @@
       <c r="BG20" s="19"/>
       <c r="BH20" s="19"/>
     </row>
-    <row r="21" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="30"/>
+    <row r="21" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="O21" s="20"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="X21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="X21" s="19"/>
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
-      <c r="AA21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="AA21" s="20"/>
       <c r="AB21" s="19"/>
       <c r="AC21" s="19"/>
-      <c r="AD21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
-      <c r="AG21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="47"/>
+      <c r="AJ21" s="19"/>
       <c r="AK21" s="19"/>
       <c r="AL21" s="19"/>
-      <c r="AM21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AV21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
       <c r="AX21" s="19"/>
-      <c r="AY21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="AY21" s="19"/>
       <c r="AZ21" s="19"/>
       <c r="BA21" s="19"/>
-      <c r="BB21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="BB21" s="19"/>
       <c r="BC21" s="19"/>
       <c r="BD21" s="19"/>
-      <c r="BE21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="BG21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="BH21" s="44" t="s">
-        <v>173</v>
-      </c>
+      <c r="BE21" s="19"/>
+      <c r="BF21" s="19"/>
+      <c r="BG21" s="19"/>
+      <c r="BH21" s="19"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="22"/>
-      <c r="AS22" s="22"/>
-      <c r="AT22" s="22"/>
-      <c r="AU22" s="22"/>
-      <c r="AV22" s="22"/>
-      <c r="AW22" s="22"/>
-      <c r="AX22" s="22"/>
-      <c r="AY22" s="22"/>
-      <c r="AZ22" s="22"/>
-      <c r="BA22" s="22"/>
-      <c r="BB22" s="22"/>
-      <c r="BC22" s="22"/>
-      <c r="BD22" s="22"/>
-      <c r="BE22" s="22"/>
-      <c r="BF22" s="22"/>
-      <c r="BG22" s="22"/>
-      <c r="BH22" s="22"/>
+    <row r="22" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
+      <c r="BF22" s="19"/>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="19"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
-      <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="22"/>
-      <c r="AR23" s="22"/>
-      <c r="AS23" s="22"/>
-      <c r="AT23" s="22"/>
-      <c r="AU23" s="22"/>
-      <c r="AV23" s="22"/>
-      <c r="AW23" s="22"/>
-      <c r="AX23" s="22"/>
-      <c r="AY23" s="22"/>
-      <c r="AZ23" s="22"/>
-      <c r="BA23" s="22"/>
-      <c r="BB23" s="22"/>
-      <c r="BC23" s="22"/>
-      <c r="BD23" s="22"/>
-      <c r="BE23" s="22"/>
-      <c r="BF23" s="22"/>
-      <c r="BG23" s="22"/>
-      <c r="BH23" s="22"/>
+    <row r="23" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="19"/>
+      <c r="BE23" s="19"/>
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="19"/>
+      <c r="BH23" s="19"/>
     </row>
-    <row r="24" spans="1:60" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="22"/>
+      <c r="BH24" s="22"/>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="22"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+    </row>
+    <row r="26" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="50" t="s">
+      <c r="C26" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="S24" s="50"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
-      <c r="AS24" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT24" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU24" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV24" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF24" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG24" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="BH24" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:60" ht="91" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="S25" s="50"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="AT25" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="AU25" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="AV25" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="BF25" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="BG25" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH25" s="50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:60" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="48" t="s">
-        <v>192</v>
+      <c r="O26" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
-      <c r="R26" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="S26" s="50"/>
+      <c r="R26" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="S26" s="46"/>
       <c r="T26" s="19"/>
-      <c r="U26" s="50" t="s">
-        <v>196</v>
+      <c r="U26" s="46" t="s">
+        <v>181</v>
       </c>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
-      <c r="AA26" s="46"/>
+      <c r="AA26" s="43"/>
       <c r="AB26" s="19"/>
       <c r="AC26" s="19"/>
-      <c r="AD26" s="48" t="s">
-        <v>196</v>
+      <c r="AD26" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
@@ -3658,92 +3502,92 @@
       <c r="AM26" s="19"/>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="50" t="s">
-        <v>196</v>
+      <c r="AP26" s="46" t="s">
+        <v>195</v>
       </c>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
-      <c r="AS26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV26" s="48" t="s">
-        <v>196</v>
+      <c r="AS26" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT26" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU26" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV26" s="44" t="s">
+        <v>197</v>
       </c>
       <c r="AW26" s="19"/>
       <c r="AX26" s="19"/>
-      <c r="AY26" s="50" t="s">
-        <v>196</v>
+      <c r="AY26" s="46" t="s">
+        <v>200</v>
       </c>
       <c r="AZ26" s="19"/>
       <c r="BA26" s="19"/>
-      <c r="BB26" s="48" t="s">
-        <v>196</v>
+      <c r="BB26" s="44" t="s">
+        <v>202</v>
       </c>
       <c r="BC26" s="19"/>
       <c r="BD26" s="19"/>
-      <c r="BE26" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="BF26" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="BG26" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH26" s="50" t="s">
-        <v>196</v>
+      <c r="BE26" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF26" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG26" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="BH26" s="46" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:60" ht="91" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="E27" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="48" t="s">
-        <v>193</v>
+      <c r="O27" s="44" t="s">
+        <v>178</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="S27" s="50"/>
+      <c r="R27" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="S27" s="46"/>
       <c r="T27" s="19"/>
-      <c r="U27" s="50" t="s">
-        <v>197</v>
+      <c r="U27" s="46" t="s">
+        <v>182</v>
       </c>
       <c r="X27" s="19"/>
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
-      <c r="AA27" s="46"/>
+      <c r="AA27" s="43"/>
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
-      <c r="AD27" s="48" t="s">
-        <v>197</v>
+      <c r="AD27" s="44" t="s">
+        <v>186</v>
       </c>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
@@ -3756,83 +3600,93 @@
       <c r="AM27" s="19"/>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="50" t="s">
-        <v>197</v>
+      <c r="AP27" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
-      <c r="AS27" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT27" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="AU27" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV27" s="48" t="s">
-        <v>212</v>
+      <c r="AS27" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT27" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU27" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV27" s="44" t="s">
+        <v>198</v>
       </c>
       <c r="AW27" s="19"/>
       <c r="AX27" s="19"/>
-      <c r="AY27" s="50" t="s">
-        <v>197</v>
+      <c r="AY27" s="46" t="s">
+        <v>201</v>
       </c>
       <c r="AZ27" s="19"/>
       <c r="BA27" s="19"/>
-      <c r="BB27" s="48" t="s">
-        <v>193</v>
+      <c r="BB27" s="44" t="s">
+        <v>203</v>
       </c>
       <c r="BC27" s="19"/>
       <c r="BD27" s="19"/>
-      <c r="BE27" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="BF27" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG27" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="BH27" s="50" t="s">
-        <v>197</v>
+      <c r="BE27" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF27" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG27" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH27" s="46" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>169</v>
+        <v>53</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="E28" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="44" t="s">
+        <v>179</v>
+      </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
+      <c r="R28" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="S28" s="46"/>
       <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
+      <c r="U28" s="46" t="s">
+        <v>183</v>
+      </c>
       <c r="X28" s="19"/>
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
+      <c r="AA28" s="43"/>
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
+      <c r="AD28" s="44" t="s">
+        <v>183</v>
+      </c>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
@@ -3844,170 +3698,353 @@
       <c r="AM28" s="19"/>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
+      <c r="AP28" s="46" t="s">
+        <v>183</v>
+      </c>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
+      <c r="AS28" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT28" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU28" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV28" s="44" t="s">
+        <v>183</v>
+      </c>
       <c r="AW28" s="19"/>
       <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
+      <c r="AY28" s="46" t="s">
+        <v>183</v>
+      </c>
       <c r="AZ28" s="19"/>
       <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
+      <c r="BB28" s="44" t="s">
+        <v>183</v>
+      </c>
       <c r="BC28" s="19"/>
       <c r="BD28" s="19"/>
-      <c r="BE28" s="19"/>
-      <c r="BF28" s="19"/>
-      <c r="BG28" s="19"/>
-      <c r="BH28" s="19"/>
+      <c r="BE28" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF28" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG28" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH28" s="46" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="29" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:60" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="21"/>
-      <c r="AQ29" s="21"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="21"/>
-      <c r="BG29" s="21"/>
-      <c r="BH29" s="21"/>
+      <c r="B29" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="S29" s="46"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT29" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU29" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV29" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ29" s="19"/>
+      <c r="BA29" s="19"/>
+      <c r="BB29" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="19"/>
+      <c r="BE29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH29" s="49" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A30" s="40"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="15"/>
-      <c r="AO30" s="15"/>
-      <c r="AP30" s="15"/>
-      <c r="AQ30" s="15"/>
-      <c r="AR30" s="15"/>
-      <c r="AS30" s="15"/>
-      <c r="AT30" s="15"/>
-      <c r="AU30" s="15"/>
-      <c r="AV30" s="15"/>
-      <c r="AW30" s="15"/>
-      <c r="AX30" s="15"/>
-      <c r="AY30" s="15"/>
-      <c r="AZ30" s="15"/>
-      <c r="BA30" s="15"/>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="15"/>
-      <c r="BD30" s="15"/>
-      <c r="BE30" s="15"/>
-      <c r="BF30" s="15"/>
-      <c r="BG30" s="15"/>
-      <c r="BH30" s="15"/>
+    <row r="30" spans="1:60" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="19"/>
+      <c r="BA30" s="19"/>
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="19"/>
+      <c r="BE30" s="19"/>
+      <c r="BF30" s="19"/>
+      <c r="BG30" s="19"/>
+      <c r="BH30" s="19"/>
+    </row>
+    <row r="31" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X18" r:id="rId1" display="http://purl.obolibrary.org/obo/OBI_0000555" xr:uid="{0F4407F2-2D05-9749-8F4A-097A23356DC6}"/>
-    <hyperlink ref="BB14" r:id="rId2" xr:uid="{E0715D4C-5FD8-164C-8257-A0A0BB5625EF}"/>
-    <hyperlink ref="BH14" r:id="rId3" xr:uid="{1118F33C-B27D-7644-9A23-642B8181A934}"/>
-    <hyperlink ref="AY14" r:id="rId4" xr:uid="{5C10F8DF-4069-1E45-BEC7-4ABBE409B1F1}"/>
-    <hyperlink ref="AV14" r:id="rId5" xr:uid="{7B350DBC-6C76-794D-85BA-8624BC573C2E}"/>
-    <hyperlink ref="BE14" r:id="rId6" xr:uid="{41401BAE-D4B2-034D-BAB8-7E0B9A642874}"/>
-    <hyperlink ref="O19" r:id="rId7" xr:uid="{BB9B92EF-9404-474F-8537-A82CE94282EE}"/>
-    <hyperlink ref="AG17" r:id="rId8" xr:uid="{EFE5B530-29C3-0D4D-A786-0D28594D7F0B}"/>
-    <hyperlink ref="AS14" r:id="rId9" xr:uid="{B99BA9A9-46C5-1B48-AE21-57ECD9E93AB8}"/>
-    <hyperlink ref="AP14" r:id="rId10" xr:uid="{08527ECA-BE56-4143-8267-4AB85742F4F8}"/>
+    <hyperlink ref="BB14" r:id="rId1" xr:uid="{E0715D4C-5FD8-164C-8257-A0A0BB5625EF}"/>
+    <hyperlink ref="BH14" r:id="rId2" xr:uid="{1118F33C-B27D-7644-9A23-642B8181A934}"/>
+    <hyperlink ref="AY14" r:id="rId3" xr:uid="{5C10F8DF-4069-1E45-BEC7-4ABBE409B1F1}"/>
+    <hyperlink ref="AV14" r:id="rId4" xr:uid="{7B350DBC-6C76-794D-85BA-8624BC573C2E}"/>
+    <hyperlink ref="BE14" r:id="rId5" xr:uid="{41401BAE-D4B2-034D-BAB8-7E0B9A642874}"/>
+    <hyperlink ref="AS14" r:id="rId6" xr:uid="{B99BA9A9-46C5-1B48-AE21-57ECD9E93AB8}"/>
+    <hyperlink ref="AP14" r:id="rId7" xr:uid="{08527ECA-BE56-4143-8267-4AB85742F4F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_MetabolomicsMassSpec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CE1F1-A336-174B-8734-6E71011755BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2733D-860E-4D1E-A4F8-40CC61E9B58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="500" windowWidth="22920" windowHeight="17500" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="247">
   <si>
     <t>Source Name</t>
   </si>
@@ -689,6 +689,87 @@
   </si>
   <si>
     <t>is_a URI</t>
+  </si>
+  <si>
+    <t>EXTRACTION - Post Extraction</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Autosampler model</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Column Type</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Guard column</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Detector</t>
+  </si>
+  <si>
+    <t>This how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>Add the full name of the autosampler you used for the Chromatographic part of this assay, including the manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
+  </si>
+  <si>
+    <t>For GC/MS Polarity of column used, for LC/MS type or phase of column used. This information can be found on the manufacturer’s website.</t>
+  </si>
+  <si>
+    <t>Manufacturer, model number and dimensions in the format shown in the examples for Chromatography column model:</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>The analyser of the mass fragments generated during the assay,</t>
+  </si>
+  <si>
+    <t>The detector used during the assay,</t>
+  </si>
+  <si>
+    <t>The detector of the mass fragments used during the assay,</t>
+  </si>
+  <si>
+    <t>Method by which detector signal is acquired by the data system.</t>
+  </si>
+  <si>
+    <t>Different name is mandatory</t>
+  </si>
+  <si>
+    <t>add to Extraction Template?</t>
+  </si>
+  <si>
+    <t>Only field is given in the Metabolights table. After mapping, combine all "EXTRACTION - Post Extraction" information in one cell.</t>
+  </si>
+  <si>
+    <t>add information to Post Extraction</t>
+  </si>
+  <si>
+    <t>combine all "CHROMATOGRAPHY - Column Type"</t>
+  </si>
+  <si>
+    <t>Combine with upper limit</t>
+  </si>
+  <si>
+    <t>Combine with lower limit</t>
+  </si>
+  <si>
+    <t>Parameter [detector acquisition mode]</t>
+  </si>
+  <si>
+    <t>Term Source REF [detector acquisition mode] (#h; #tMS:1000027)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [detector acquisition mode] (#h; #tMS:1000027)</t>
+  </si>
+  <si>
+    <t>MS:1000027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000027</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Detector mode</t>
   </si>
 </sst>
 </file>
@@ -779,7 +860,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +909,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -872,7 +959,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,27 +1071,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{751FC18E-D306-8B42-912B-598F45328FEF}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1076,75 +1165,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BA91F90-A206-C24A-B071-E1351392860E}" name="annotationTable" displayName="annotationTable" ref="D2:BJ3" totalsRowShown="0">
-  <autoFilter ref="D2:BJ3" xr:uid="{155D8245-62B7-F340-A809-633676FF14D5}"/>
-  <tableColumns count="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BA91F90-A206-C24A-B071-E1351392860E}" name="annotationTable" displayName="annotationTable" ref="D2:BM3" totalsRowShown="0">
+  <autoFilter ref="D2:BM3" xr:uid="{155D8245-62B7-F340-A809-633676FF14D5}"/>
+  <tableColumns count="62">
     <tableColumn id="1" xr3:uid="{BBBF64BA-87C6-D34E-A6CD-4299F4D962C8}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{14AC94B4-25B3-E44B-8B75-F5DA7ADF4505}" name="Sample Name"/>
-    <tableColumn id="3" xr3:uid="{DE8A40D7-A9A3-6D44-A444-4CDA584115FB}" name="Parameter [MS sample post-extraction]" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{DE8A40D7-A9A3-6D44-A444-4CDA584115FB}" name="Parameter [MS sample post-extraction]" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{91DB6965-9407-084F-B87C-167B363C8F64}" name="Term Source REF [MS sample post-extraction] (#h; #tNFDI4PSO:0000043)"/>
     <tableColumn id="5" xr3:uid="{8F068F1B-0799-934A-A950-0CCA864FA729}" name="Term Accession Number [MS sample post-extraction] (#h; #tNFDI4PSO:0000043)"/>
-    <tableColumn id="6" xr3:uid="{C6859ADD-6217-6046-B9CE-0E2C44AEB18F}" name="Parameter [MS sample resuspension]" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{C6859ADD-6217-6046-B9CE-0E2C44AEB18F}" name="Parameter [MS sample resuspension]" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{7FBCD097-8CAE-F140-921C-B77023BC4AE2}" name="Term Source REF [MS sample resuspension] (#h; #tNFDI4PSO:0000044)"/>
     <tableColumn id="8" xr3:uid="{81B6A235-8405-DD4A-8C68-E37AC0D99B1B}" name="Term Accession Number [MS sample resuspension] (#h; #tNFDI4PSO:0000044)"/>
-    <tableColumn id="9" xr3:uid="{0D61368D-553F-1949-B1E3-71D3E20AD860}" name="Parameter [MS sample type]" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{0D61368D-553F-1949-B1E3-71D3E20AD860}" name="Parameter [MS sample type]" dataDxfId="17"/>
     <tableColumn id="10" xr3:uid="{6179952F-0BCA-CF4E-944F-EB19C4832C67}" name="Term Source REF [MS sample type] (#h; #tNFDI4PSO:0000045)"/>
     <tableColumn id="11" xr3:uid="{994D6D0B-5285-DE4E-95A4-E184360E374C}" name="Term Accession Number [MS sample type] (#h; #tNFDI4PSO:0000045)"/>
-    <tableColumn id="12" xr3:uid="{B56199D0-4A72-9A48-A183-6470EDD554B1}" name="Parameter [MS derivatization]" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{B56199D0-4A72-9A48-A183-6470EDD554B1}" name="Parameter [MS derivatization]" dataDxfId="16"/>
     <tableColumn id="13" xr3:uid="{2D30CB05-A2E2-F747-B469-07C250031A33}" name="Term Source REF [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
     <tableColumn id="14" xr3:uid="{6110C472-0713-954C-9FD7-812784023EE1}" name="Term Accession Number [MS derivatization] (#h; #tNFDI4PSO:0000052)"/>
-    <tableColumn id="51" xr3:uid="{554B6563-D38B-46C3-A7D4-BF17E7735C26}" name="Parameter [label]" dataDxfId="14"/>
+    <tableColumn id="51" xr3:uid="{554B6563-D38B-46C3-A7D4-BF17E7735C26}" name="Parameter [label]" dataDxfId="15"/>
     <tableColumn id="55" xr3:uid="{0D4DB16D-2B55-49F2-B11B-157D5B2B9BFE}" name="Term Source REF [label] (#h; #tNFDI4PSO:0000079)"/>
     <tableColumn id="59" xr3:uid="{078026AD-3C19-4E75-9D4B-210B925CD75D}" name="Term Accession Number [label] (#h; #tNFDI4PSO:0000079)"/>
-    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{F21D0BDF-9000-5547-AD8A-1BE6C6EB09E6}" name="Parameter [Chromatography instrument model]" dataDxfId="14"/>
     <tableColumn id="19" xr3:uid="{93F305FB-AF63-0547-9A9E-9316392B763C}" name="Term Source REF [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
     <tableColumn id="20" xr3:uid="{036AA641-2BC0-5847-B2EF-7FA1822B2E7C}" name="Term Accession Number [Chromatography instrument model] (#h; #tNFDI4PSO:0000046)"/>
-    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{81B5AB82-D2E2-C740-93BA-2766BD270F4C}" name="Parameter [Chromatography autosampler model]" dataDxfId="13"/>
     <tableColumn id="22" xr3:uid="{9B4B8450-0F52-524D-BC1F-8E8E4F80A6BE}" name="Term Source REF [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
     <tableColumn id="23" xr3:uid="{2C883FF4-82A2-EF44-8B01-97DEF7569A6D}" name="Term Accession Number [Chromatography autosampler model] (#h; #tNFDI4PSO:0000047)"/>
-    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{512E4A1B-6AF1-BB4D-8962-A4698189D07B}" name="Parameter [Chromatography column type]" dataDxfId="12"/>
     <tableColumn id="25" xr3:uid="{B270572B-8B22-1B4F-9EC7-50CCCD074C18}" name="Term Source REF [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
     <tableColumn id="26" xr3:uid="{FD917BD1-F453-8F4C-BBB1-50D7883F34ED}" name="Term Accession Number [Chromatography column type] (#h; #tNFDI4PSO:0000053)"/>
-    <tableColumn id="15" xr3:uid="{B77278E7-9132-F84E-8F09-B3C5A6FCEB98}" name="Parameter [Chromatography column model]" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{B77278E7-9132-F84E-8F09-B3C5A6FCEB98}" name="Parameter [Chromatography column model]" dataDxfId="11"/>
     <tableColumn id="16" xr3:uid="{C8D2A8BF-92D3-8844-B3A5-624551FA014E}" name="Term Source REF [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
     <tableColumn id="17" xr3:uid="{1DBC3227-CDE2-F448-A105-909606EBE21D}" name="Term Accession Number [Chromatography column model] (#h; #tNFDI4PSO:0000048)"/>
-    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{17F7E68D-3B88-FF43-A4B3-399DCFB2F59B}" name="Parameter [Chromatography guard column model]" dataDxfId="10"/>
     <tableColumn id="28" xr3:uid="{A4809FDB-124E-3C42-BAE1-11373D15BF08}" name="Term Source REF [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
     <tableColumn id="29" xr3:uid="{FA85BE75-6B6C-7140-AC46-8BA24514D954}" name="Term Accession Number [Chromatography guard column model] (#h; #tNFDI4PSO:0000049)"/>
-    <tableColumn id="61" xr3:uid="{91FBB916-95C1-4130-99F9-3C605D462F08}" name="Parameter [mobile phase]" dataDxfId="8"/>
+    <tableColumn id="61" xr3:uid="{91FBB916-95C1-4130-99F9-3C605D462F08}" name="Parameter [mobile phase]" dataDxfId="9"/>
     <tableColumn id="62" xr3:uid="{5F39373C-7B4A-419A-A832-D442EDFF6D75}" name="Term Source REF [mobile phase] (#h; #tNFDI4PSO:0000080)"/>
     <tableColumn id="63" xr3:uid="{9455D16F-3EE2-436E-B377-9A561EBF3A05}" name="Term Accession Number [mobile phase] (#h; #tNFDI4PSO:0000080)"/>
-    <tableColumn id="64" xr3:uid="{516D4528-3375-4A12-832E-AA36EF0EDBC1}" name="Parameter [elution]" dataDxfId="7"/>
+    <tableColumn id="64" xr3:uid="{516D4528-3375-4A12-832E-AA36EF0EDBC1}" name="Parameter [elution]" dataDxfId="8"/>
     <tableColumn id="65" xr3:uid="{958983F7-D491-4988-AE0B-A0A895FEFA61}" name="Term Source REF [elution] (#h; #tNFDI4PSO:0000081)"/>
     <tableColumn id="66" xr3:uid="{A75D43C8-D402-4832-B200-1037B0DBB096}" name="Term Accession Number [elution] (#h; #tNFDI4PSO:0000081)"/>
-    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{183360A2-948E-BB46-9A5B-9314170BA82F}" name="Parameter [scan polarity]" dataDxfId="7"/>
     <tableColumn id="31" xr3:uid="{8CE758DF-293A-5B43-8923-E07BBEA300B9}" name="Term Source REF [scan polarity] (#h; #tMS:1000465)"/>
     <tableColumn id="32" xr3:uid="{C2D1CF91-64E8-8844-B84E-0198C9EBC687}" name="Term Accession Number [scan polarity] (#h; #tMS:1000465)"/>
-    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{1BE5C769-A04D-F344-AF0D-86BBBDED416E}" name="Parameter [scan window lower limit]" dataDxfId="6"/>
     <tableColumn id="34" xr3:uid="{720A408D-0D3D-5A47-9C32-FA091FF2BBA5}" name="Term Source REF [scan window lower limit] (#h; #tMS:1000501)"/>
     <tableColumn id="35" xr3:uid="{10AC5530-C162-4F4B-B33D-69144D995141}" name="Term Accession Number [scan window lower limit] (#h; #tMS:1000501)"/>
-    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{C8558B98-C98A-A244-A439-51E3B9875A8F}" name="Parameter [scan window upper limit]" dataDxfId="5"/>
     <tableColumn id="37" xr3:uid="{8001FAB7-F714-324C-B592-D83361B52D1A}" name="Term Source REF [scan window upper limit] (#h; #tMS:1000500)"/>
     <tableColumn id="38" xr3:uid="{09050567-9154-5644-9F7E-7A35F81C36C5}" name="Term Accession Number [scan window upper limit] (#h; #tMS:1000500)"/>
-    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{7C0DFAF7-046E-534F-9C57-89FEE3E72208}" name="Parameter [instrument model]" dataDxfId="4"/>
     <tableColumn id="40" xr3:uid="{3B19E320-D898-6947-A400-B7D35D58F1A6}" name="Term Source REF [instrument model] (#h; #tMS:1000031)"/>
     <tableColumn id="41" xr3:uid="{14CC0697-3DFB-3447-B1FD-767F08108295}" name="Term Accession Number [instrument model] (#h; #tMS:1000031)"/>
-    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="2"/>
+    <tableColumn id="42" xr3:uid="{97CC8885-D3E6-AA4E-A1AA-E031764C9196}" name="Parameter [ionization type]" dataDxfId="3"/>
     <tableColumn id="43" xr3:uid="{5BD69720-0711-3440-BFAD-856D20CC0859}" name="Term Source REF [ionization type] (#h; #tMS:1000008)"/>
     <tableColumn id="44" xr3:uid="{ED78172F-0957-0649-9712-53DC91AAEF41}" name="Term Accession Number [ionization type] (#h; #tMS:1000008)"/>
-    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="1"/>
+    <tableColumn id="45" xr3:uid="{209174F2-9485-7D4F-9577-999720963CA1}" name="Parameter [mass analyzer type]" dataDxfId="2"/>
     <tableColumn id="46" xr3:uid="{E1C36D22-2A7B-F04A-AF75-00C1C8C9CAF4}" name="Term Source REF [mass analyzer type] (#h; #tMS:1000443)"/>
     <tableColumn id="47" xr3:uid="{F695DECA-D1D9-A542-8FEF-479135275C4A}" name="Term Accession Number [mass analyzer type] (#h; #tMS:1000443)"/>
-    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="0"/>
+    <tableColumn id="48" xr3:uid="{B0DDCF73-7408-C247-9E67-7CBF0B943A49}" name="Parameter [detector type]" dataDxfId="1"/>
     <tableColumn id="49" xr3:uid="{9E7C28E6-2B09-5A4D-BEA2-E89CA9B02622}" name="Term Source REF [detector type] (#h; #tMS:1000026)"/>
     <tableColumn id="50" xr3:uid="{2EAE4DF7-6E4D-8044-9A56-E7115F15BB64}" name="Term Accession Number [detector type] (#h; #tMS:1000026)"/>
+    <tableColumn id="52" xr3:uid="{EEAA1AE4-ABA6-4B49-BEAA-C039880C5B23}" name="Parameter [detector acquisition mode]" dataDxfId="0"/>
+    <tableColumn id="53" xr3:uid="{3D0B1CE3-7FEA-4E5E-BB77-558B62E8A45D}" name="Term Source REF [detector acquisition mode] (#h; #tMS:1000027)"/>
+    <tableColumn id="54" xr3:uid="{617B14BC-36D5-4FA4-BB1E-2C48A7DFF8D9}" name="Term Accession Number [detector acquisition mode] (#h; #tMS:1000027)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1440,7 +1532,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="597" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1458,88 +1550,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F31B6-C4E7-AF4A-AFC7-8DE959780CB6}">
-  <dimension ref="A1:BJ32"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="24" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="BL31" sqref="BL31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="14"/>
-    <col min="4" max="4" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="73.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="38" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="72" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="64.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="65.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="40.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="54.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="49.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="75" style="14" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="81.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="49.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="76.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="83" style="14" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="69.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="76.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="64.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="71.5" style="14" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="78.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="68.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="77" style="14" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="83.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="46.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="55.5" style="14" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="62.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="53.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="60" style="14" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="48.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="55.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="58.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="65.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="65.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="53.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="60.5" style="14" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="52.5" style="14" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="58.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="54.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="60.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="39.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="49.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="56.5" style="14" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="37.5" style="14"/>
+    <col min="4" max="4" width="20.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="92.375" style="14" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="100.5" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.875" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="98" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79.125" style="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="87.25" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="43.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="81" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="89.25" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="43.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="66.375" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="74.5" style="14" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="59.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="101" style="14" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="109.25" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="61.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="103.25" style="14" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="111.375" style="14" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="53.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="95.375" style="14" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="103.5" style="14" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="63.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="97.25" style="14" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="105.375" style="14" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="77.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="104.75" style="14" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="112.875" style="14" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="51.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="76.375" style="14" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="84.5" style="14" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="50.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="68.25" style="14" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="76.625" style="14" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="42.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="66.625" style="14" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="74.75" style="14" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="46.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="78.25" style="14" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="86.375" style="14" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="47.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="79.25" style="14" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="87.375" style="14" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="42.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="71.125" style="14" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="79.25" style="14" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="42.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="68.625" style="14" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="77" style="14" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="42.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="73.875" style="14" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="82.25" style="14" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="42.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="67.25" style="14" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="75.5" style="14" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="50.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="82.375" style="14" customWidth="1"/>
+    <col min="65" max="65" width="90.5" style="14" customWidth="1"/>
+    <col min="66" max="16384" width="37.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="23"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>216</v>
       </c>
       <c r="D1" s="1"/>
@@ -1600,9 +1695,12 @@
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
-      <c r="BJ1" s="2"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="2"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>137</v>
       </c>
@@ -1785,8 +1883,17 @@
       <c r="BJ2" t="s">
         <v>46</v>
       </c>
+      <c r="BK2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
@@ -1851,8 +1958,11 @@
       <c r="BH3" s="3"/>
       <c r="BI3"/>
       <c r="BJ3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1913,8 +2023,9 @@
       <c r="BF4" s="15"/>
       <c r="BG4" s="15"/>
       <c r="BH4" s="15"/>
+      <c r="BK4" s="15"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>138</v>
       </c>
@@ -2011,8 +2122,9 @@
         <v>74</v>
       </c>
       <c r="BH5" s="16"/>
+      <c r="BK5" s="16"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>138</v>
       </c>
@@ -2105,8 +2217,9 @@
         <v>80</v>
       </c>
       <c r="BH6" s="16"/>
+      <c r="BK6" s="16"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>138</v>
       </c>
@@ -2179,8 +2292,9 @@
       <c r="BF7" s="16"/>
       <c r="BG7" s="16"/>
       <c r="BH7" s="16"/>
+      <c r="BK7" s="16"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>138</v>
       </c>
@@ -2251,8 +2365,9 @@
       <c r="BF8" s="16"/>
       <c r="BG8" s="16"/>
       <c r="BH8" s="16"/>
+      <c r="BK8" s="16"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>138</v>
       </c>
@@ -2317,8 +2432,9 @@
       <c r="BF9" s="16"/>
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
+      <c r="BK9" s="16"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>138</v>
       </c>
@@ -2377,8 +2493,9 @@
       <c r="BF10" s="16"/>
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
+      <c r="BK10" s="16"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2435,8 +2552,9 @@
       <c r="BF11" s="15"/>
       <c r="BG11" s="15"/>
       <c r="BH11" s="15"/>
+      <c r="BK11" s="15"/>
     </row>
-    <row r="12" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>139</v>
       </c>
@@ -2537,8 +2655,11 @@
       <c r="BH12" s="17" t="s">
         <v>115</v>
       </c>
+      <c r="BK12" s="17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>139</v>
       </c>
@@ -2639,8 +2760,11 @@
       <c r="BH13" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="BK13" s="18" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>139</v>
       </c>
@@ -2723,8 +2847,11 @@
       <c r="BH14" s="19" t="s">
         <v>124</v>
       </c>
+      <c r="BK14" s="51" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>139</v>
       </c>
@@ -2809,8 +2936,11 @@
       <c r="BH15" s="21" t="s">
         <v>116</v>
       </c>
+      <c r="BK15" s="21" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>145</v>
       </c>
@@ -2840,8 +2970,8 @@
       <c r="U16" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
       <c r="X16" s="42"/>
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
@@ -2863,8 +2993,8 @@
       <c r="AN16" s="42"/>
       <c r="AO16" s="42"/>
       <c r="AP16" s="42"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
       <c r="AS16" s="42"/>
       <c r="AT16" s="42"/>
       <c r="AU16" s="42"/>
@@ -2883,8 +3013,9 @@
       <c r="BF16" s="42"/>
       <c r="BG16" s="42"/>
       <c r="BH16" s="42"/>
+      <c r="BK16" s="42"/>
     </row>
-    <row r="17" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>145</v>
       </c>
@@ -2945,8 +3076,9 @@
       <c r="BF17" s="21"/>
       <c r="BG17" s="21"/>
       <c r="BH17" s="21"/>
+      <c r="BK17" s="21"/>
     </row>
-    <row r="18" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>148</v>
       </c>
@@ -3009,8 +3141,9 @@
       <c r="BF18" s="19"/>
       <c r="BG18" s="19"/>
       <c r="BH18" s="19"/>
+      <c r="BK18" s="19"/>
     </row>
-    <row r="19" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>148</v>
       </c>
@@ -3073,12 +3206,13 @@
       <c r="BF19" s="19"/>
       <c r="BG19" s="19"/>
       <c r="BH19" s="19"/>
+      <c r="BK19" s="19"/>
     </row>
-    <row r="20" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:63" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>217</v>
       </c>
       <c r="C20" s="29" t="s">
@@ -3137,12 +3271,13 @@
       <c r="BF20" s="19"/>
       <c r="BG20" s="19"/>
       <c r="BH20" s="19"/>
+      <c r="BK20" s="19"/>
     </row>
-    <row r="21" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:63" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>219</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -3201,8 +3336,9 @@
       <c r="BF21" s="19"/>
       <c r="BG21" s="19"/>
       <c r="BH21" s="19"/>
+      <c r="BK21" s="19"/>
     </row>
-    <row r="22" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>148</v>
       </c>
@@ -3263,8 +3399,9 @@
       <c r="BF22" s="19"/>
       <c r="BG22" s="19"/>
       <c r="BH22" s="19"/>
+      <c r="BK22" s="19"/>
     </row>
-    <row r="23" spans="1:60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>148</v>
       </c>
@@ -3325,8 +3462,9 @@
       <c r="BF23" s="19"/>
       <c r="BG23" s="19"/>
       <c r="BH23" s="19"/>
+      <c r="BK23" s="19"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3385,8 +3523,9 @@
       <c r="BF24" s="22"/>
       <c r="BG24" s="22"/>
       <c r="BH24" s="22"/>
+      <c r="BK24" s="22"/>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -3445,8 +3584,9 @@
       <c r="BF25" s="22"/>
       <c r="BG25" s="22"/>
       <c r="BH25" s="22"/>
+      <c r="BK25" s="22"/>
     </row>
-    <row r="26" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -3460,13 +3600,23 @@
       <c r="E26" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="F26" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>220</v>
+      </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="48" t="s">
+        <v>220</v>
+      </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="44" t="s">
@@ -3474,18 +3624,22 @@
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
-      <c r="R26" s="46" t="s">
+      <c r="R26" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="S26" s="46"/>
+      <c r="S26" s="44"/>
       <c r="T26" s="19"/>
-      <c r="U26" s="46" t="s">
+      <c r="U26" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="43"/>
+      <c r="X26" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="48" t="s">
+        <v>222</v>
+      </c>
       <c r="AB26" s="19"/>
       <c r="AC26" s="19"/>
       <c r="AD26" s="44" t="s">
@@ -3493,16 +3647,22 @@
       </c>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
+      <c r="AG26" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="48" t="s">
+        <v>222</v>
+      </c>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="46" t="s">
+      <c r="AP26" s="44" t="s">
         <v>195</v>
       </c>
       <c r="AQ26" s="19"/>
@@ -3521,7 +3681,7 @@
       </c>
       <c r="AW26" s="19"/>
       <c r="AX26" s="19"/>
-      <c r="AY26" s="46" t="s">
+      <c r="AY26" s="44" t="s">
         <v>200</v>
       </c>
       <c r="AZ26" s="19"/>
@@ -3531,20 +3691,29 @@
       </c>
       <c r="BC26" s="19"/>
       <c r="BD26" s="19"/>
-      <c r="BE26" s="46" t="s">
+      <c r="BE26" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="BF26" s="46" t="s">
+      <c r="BF26" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="BG26" s="46" t="s">
+      <c r="BG26" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="BH26" s="46" t="s">
-        <v>204</v>
+      <c r="BH26" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="BI26" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ26" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK26" s="48" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="91" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -3558,13 +3727,23 @@
       <c r="E27" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="F27" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>225</v>
+      </c>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="48" t="s">
+        <v>225</v>
+      </c>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="44" t="s">
@@ -3572,18 +3751,22 @@
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="46" t="s">
+      <c r="R27" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="S27" s="46"/>
+      <c r="S27" s="44"/>
       <c r="T27" s="19"/>
-      <c r="U27" s="46" t="s">
+      <c r="U27" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="43"/>
+      <c r="X27" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="48" t="s">
+        <v>227</v>
+      </c>
       <c r="AB27" s="19"/>
       <c r="AC27" s="19"/>
       <c r="AD27" s="44" t="s">
@@ -3591,16 +3774,22 @@
       </c>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
+      <c r="AG27" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49" t="s">
+        <v>229</v>
+      </c>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="46" t="s">
+      <c r="AP27" s="44" t="s">
         <v>196</v>
       </c>
       <c r="AQ27" s="19"/>
@@ -3619,7 +3808,7 @@
       </c>
       <c r="AW27" s="19"/>
       <c r="AX27" s="19"/>
-      <c r="AY27" s="46" t="s">
+      <c r="AY27" s="44" t="s">
         <v>201</v>
       </c>
       <c r="AZ27" s="19"/>
@@ -3629,20 +3818,29 @@
       </c>
       <c r="BC27" s="19"/>
       <c r="BD27" s="19"/>
-      <c r="BE27" s="46" t="s">
+      <c r="BE27" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF27" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="BF27" s="46" t="s">
+      <c r="BG27" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="BG27" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="BH27" s="46" t="s">
-        <v>205</v>
+      <c r="BH27" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="BI27" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="BJ27" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="BK27" s="48" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -3656,13 +3854,23 @@
       <c r="E28" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="F28" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>179</v>
+      </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="48" t="s">
+        <v>179</v>
+      </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="44" t="s">
@@ -3670,18 +3878,22 @@
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
-      <c r="R28" s="46" t="s">
+      <c r="R28" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="S28" s="46"/>
+      <c r="S28" s="44"/>
       <c r="T28" s="19"/>
-      <c r="U28" s="46" t="s">
+      <c r="U28" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="43"/>
+      <c r="X28" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="50" t="s">
+        <v>183</v>
+      </c>
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="44" t="s">
@@ -3689,16 +3901,22 @@
       </c>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
+      <c r="AG28" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49" t="s">
+        <v>179</v>
+      </c>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="46" t="s">
+      <c r="AP28" s="44" t="s">
         <v>183</v>
       </c>
       <c r="AQ28" s="19"/>
@@ -3717,7 +3935,7 @@
       </c>
       <c r="AW28" s="19"/>
       <c r="AX28" s="19"/>
-      <c r="AY28" s="46" t="s">
+      <c r="AY28" s="44" t="s">
         <v>183</v>
       </c>
       <c r="AZ28" s="19"/>
@@ -3727,20 +3945,29 @@
       </c>
       <c r="BC28" s="19"/>
       <c r="BD28" s="19"/>
-      <c r="BE28" s="46" t="s">
+      <c r="BE28" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="BF28" s="46" t="s">
+      <c r="BF28" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="BG28" s="46" t="s">
+      <c r="BG28" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="BH28" s="46" t="s">
-        <v>183</v>
+      <c r="BH28" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI28" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="BJ28" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK28" s="48" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -3754,13 +3981,23 @@
       <c r="E29" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
+      <c r="F29" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>180</v>
+      </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="48" t="s">
+        <v>180</v>
+      </c>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="44" t="s">
@@ -3768,35 +4005,45 @@
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
-      <c r="R29" s="46" t="s">
+      <c r="R29" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="S29" s="46"/>
+      <c r="S29" s="44"/>
       <c r="T29" s="19"/>
-      <c r="U29" s="49" t="s">
+      <c r="U29" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="43"/>
+      <c r="X29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="50" t="s">
+        <v>180</v>
+      </c>
       <c r="AB29" s="19"/>
       <c r="AC29" s="19"/>
-      <c r="AD29" s="49" t="s">
+      <c r="AD29" s="44" t="s">
         <v>184</v>
       </c>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
+      <c r="AG29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49" t="s">
+        <v>180</v>
+      </c>
       <c r="AN29" s="19"/>
       <c r="AO29" s="19"/>
-      <c r="AP29" s="49" t="s">
+      <c r="AP29" s="44" t="s">
         <v>184</v>
       </c>
       <c r="AQ29" s="19"/>
@@ -3815,7 +4062,7 @@
       </c>
       <c r="AW29" s="19"/>
       <c r="AX29" s="19"/>
-      <c r="AY29" s="49" t="s">
+      <c r="AY29" s="44" t="s">
         <v>184</v>
       </c>
       <c r="AZ29" s="19"/>
@@ -3825,20 +4072,29 @@
       </c>
       <c r="BC29" s="19"/>
       <c r="BD29" s="19"/>
-      <c r="BE29" s="49" t="s">
+      <c r="BE29" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="BF29" s="49" t="s">
+      <c r="BF29" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="BG29" s="49" t="s">
+      <c r="BG29" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="BH29" s="49" t="s">
+      <c r="BH29" s="48" t="s">
         <v>184</v>
       </c>
+      <c r="BI29" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ29" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK29" s="48" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="30" spans="1:60" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -3849,14 +4105,26 @@
         <v>161</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="E30" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>235</v>
+      </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="L30" s="48" t="s">
+        <v>237</v>
+      </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
@@ -3875,22 +4143,30 @@
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49" t="s">
+        <v>238</v>
+      </c>
       <c r="AN30" s="19"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="19"/>
-      <c r="AS30" s="19"/>
-      <c r="AT30" s="19"/>
-      <c r="AU30" s="19"/>
-      <c r="AV30" s="19"/>
+      <c r="AS30" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49" t="s">
+        <v>240</v>
+      </c>
       <c r="AW30" s="19"/>
       <c r="AX30" s="19"/>
       <c r="AY30" s="19"/>
@@ -3903,8 +4179,11 @@
       <c r="BF30" s="19"/>
       <c r="BG30" s="19"/>
       <c r="BH30" s="19"/>
+      <c r="BI30" s="19"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="19"/>
     </row>
-    <row r="31" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -3969,8 +4248,9 @@
       <c r="BF31" s="21"/>
       <c r="BG31" s="21"/>
       <c r="BH31" s="21"/>
+      <c r="BK31" s="21"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -4029,6 +4309,7 @@
       <c r="BF32" s="15"/>
       <c r="BG32" s="15"/>
       <c r="BH32" s="15"/>
+      <c r="BK32" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4040,11 +4321,12 @@
     <hyperlink ref="BE14" r:id="rId5" xr:uid="{41401BAE-D4B2-034D-BAB8-7E0B9A642874}"/>
     <hyperlink ref="AS14" r:id="rId6" xr:uid="{B99BA9A9-46C5-1B48-AE21-57ECD9E93AB8}"/>
     <hyperlink ref="AP14" r:id="rId7" xr:uid="{08527ECA-BE56-4143-8267-4AB85742F4F8}"/>
+    <hyperlink ref="BK14" r:id="rId8" xr:uid="{F33F29C5-3DA8-456E-A38D-1B0EBEED9F46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_MetabolomicsMassSpec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60766C41-6C71-6344-8A4B-67DB728704A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DB732-8E02-4D6C-AD79-6C5A6601CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="162">
   <si>
     <t>Source Name</t>
   </si>
@@ -414,12 +414,6 @@
     <t>The analyser/detector of the mass fragments generated during the assay,</t>
   </si>
   <si>
-    <t>MASS SPECTROMETRY - MS Assay Name</t>
-  </si>
-  <si>
-    <t>This can be, but doesn’t have to be, the same as the ‘Sample Name’</t>
-  </si>
-  <si>
     <t>Term Source REF [label] (#h; #tNFDI4PSO:0000079)</t>
   </si>
   <si>
@@ -483,27 +477,9 @@
     <t>Method by which detector signal is acquired by the data system.</t>
   </si>
   <si>
-    <t>Different name is mandatory</t>
-  </si>
-  <si>
-    <t>add to Extraction Template?</t>
-  </si>
-  <si>
     <t>Only field is given in the Metabolights table. After mapping, combine all "EXTRACTION - Post Extraction" information in one cell.</t>
   </si>
   <si>
-    <t>add information to Post Extraction</t>
-  </si>
-  <si>
-    <t>combine all "CHROMATOGRAPHY - Column Type"</t>
-  </si>
-  <si>
-    <t>Combine with upper limit</t>
-  </si>
-  <si>
-    <t>Combine with lower limit</t>
-  </si>
-  <si>
     <t>Parameter [detector acquisition mode]</t>
   </si>
   <si>
@@ -529,6 +505,12 @@
   </si>
   <si>
     <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Concatenate with upper limit</t>
+  </si>
+  <si>
+    <t>Concatenate with lower limit</t>
   </si>
 </sst>
 </file>
@@ -613,7 +595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,12 +623,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +670,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,13 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -777,20 +746,22 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{751FC18E-D306-8B42-912B-598F45328FEF}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -938,7 +909,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1254,87 +1225,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35F31B6-C4E7-AF4A-AFC7-8DE959780CB6}">
   <dimension ref="A1:BL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="48.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.375" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="99" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.875" style="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="70" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="62.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="39.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="57.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.625" style="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="62.875" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="39.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.875" style="8" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="64" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="43.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.625" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="47" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="53.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="58.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="72.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="78.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="61.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.125" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="58.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="72.625" style="8" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="78.875" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="61.375" style="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="74" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="80.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="51.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="80.125" style="8" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="51.875" style="8" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="68" style="8" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="74.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="60.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="74.125" style="8" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="60.375" style="8" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="69.5" style="8" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="75.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="71.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="74.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="81.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="75.875" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="71.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="74.875" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="81.125" style="8" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="45.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="54.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="54.125" style="8" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="60.5" style="8" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="42.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="48.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="42.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="48.625" style="8" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="55" style="8" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="41.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="47.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="53.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="37.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="57.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="63.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="37.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="57.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="63.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="41.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="41.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="47.625" style="8" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="53.875" style="8" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="37.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="57.625" style="8" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="63.875" style="8" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="37.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="57.625" style="8" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="63.875" style="8" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="41.625" style="8" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="52" style="8" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="58.1640625" style="8" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="58.125" style="8" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="33" style="8" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="49.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="55.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="49.375" style="8" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="55.625" style="8" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="40" style="8" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="62.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="57" max="58" width="62.375" style="8" hidden="1" customWidth="1"/>
     <col min="59" max="59" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="50.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="54.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="50.375" style="8" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="54.375" style="8" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="47" style="8" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="58.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="58.875" style="8" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="65" style="8" hidden="1" customWidth="1"/>
     <col min="65" max="16384" width="37.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>163</v>
+      <c r="B1" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="4"/>
@@ -1399,7 +1370,7 @@
       <c r="BK1" s="4"/>
       <c r="BL1" s="2"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -1450,10 +1421,10 @@
         <v>113</v>
       </c>
       <c r="R2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T2" t="s">
         <v>14</v>
@@ -1504,19 +1475,19 @@
         <v>99</v>
       </c>
       <c r="AJ2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AK2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL2" t="s">
         <v>100</v>
       </c>
       <c r="AM2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AN2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO2" t="s">
         <v>26</v>
@@ -1582,16 +1553,16 @@
         <v>46</v>
       </c>
       <c r="BJ2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="BK2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="BL2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>92</v>
       </c>
@@ -1659,155 +1630,155 @@
       <c r="BK3"/>
       <c r="BL3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="28"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="28"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="28"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="28"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="28"/>
+      <c r="W4" s="25"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="28"/>
+      <c r="Z4" s="25"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="28"/>
+      <c r="AC4" s="25"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
-      <c r="AF4" s="28"/>
+      <c r="AF4" s="25"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="28"/>
+      <c r="AI4" s="25"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="28"/>
+      <c r="AL4" s="25"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="28"/>
+      <c r="AO4" s="25"/>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
-      <c r="AR4" s="28"/>
+      <c r="AR4" s="25"/>
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="28"/>
+      <c r="AU4" s="25"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="28"/>
+      <c r="AX4" s="25"/>
       <c r="AY4" s="9"/>
       <c r="AZ4" s="9"/>
-      <c r="BA4" s="28"/>
+      <c r="BA4" s="25"/>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
-      <c r="BD4" s="28"/>
+      <c r="BD4" s="25"/>
       <c r="BE4" s="9"/>
       <c r="BF4" s="9"/>
-      <c r="BG4" s="28"/>
-      <c r="BJ4" s="28"/>
+      <c r="BG4" s="25"/>
+      <c r="BJ4" s="25"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="26" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="26" t="s">
         <v>53</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="26" t="s">
         <v>114</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="W5" s="26" t="s">
         <v>65</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="29" t="s">
+      <c r="Z5" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
-      <c r="AC5" s="29" t="s">
+      <c r="AC5" s="26" t="s">
         <v>55</v>
       </c>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
-      <c r="AF5" s="29" t="s">
+      <c r="AF5" s="26" t="s">
         <v>86</v>
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="29" t="s">
+      <c r="AI5" s="26" t="s">
         <v>97</v>
       </c>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
-      <c r="AL5" s="29" t="s">
+      <c r="AL5" s="26" t="s">
         <v>101</v>
       </c>
       <c r="AM5" s="10"/>
       <c r="AN5" s="10"/>
-      <c r="AO5" s="29" t="s">
+      <c r="AO5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AR5" s="29">
+      <c r="AR5" s="26">
         <v>50</v>
       </c>
-      <c r="AU5" s="29">
+      <c r="AU5" s="26">
         <v>1300</v>
       </c>
       <c r="AV5" s="10"/>
       <c r="AW5" s="10"/>
-      <c r="AX5" s="29" t="s">
+      <c r="AX5" s="26" t="s">
         <v>58</v>
       </c>
       <c r="AY5" s="10"/>
       <c r="AZ5" s="10"/>
-      <c r="BA5" s="29" t="s">
+      <c r="BA5" s="26" t="s">
         <v>59</v>
       </c>
       <c r="BB5" s="10"/>
       <c r="BC5" s="10"/>
-      <c r="BD5" s="29" t="s">
+      <c r="BD5" s="26" t="s">
         <v>70</v>
       </c>
       <c r="BE5" s="10" t="s">
@@ -1816,92 +1787,92 @@
       <c r="BF5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BG5" s="29"/>
-      <c r="BJ5" s="29"/>
+      <c r="BG5" s="26"/>
+      <c r="BJ5" s="26"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="26" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="26" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="26" t="s">
         <v>62</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="26" t="s">
         <v>63</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="26" t="s">
         <v>115</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="29"/>
+      <c r="W6" s="26"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="29" t="s">
+      <c r="Z6" s="26" t="s">
         <v>67</v>
       </c>
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
-      <c r="AC6" s="29" t="s">
+      <c r="AC6" s="26" t="s">
         <v>66</v>
       </c>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
-      <c r="AF6" s="29"/>
+      <c r="AF6" s="26"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
-      <c r="AI6" s="29" t="s">
+      <c r="AI6" s="26" t="s">
         <v>98</v>
       </c>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="29" t="s">
+      <c r="AL6" s="26" t="s">
         <v>102</v>
       </c>
       <c r="AM6" s="10"/>
       <c r="AN6" s="10"/>
-      <c r="AO6" s="29" t="s">
+      <c r="AO6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AR6" s="29">
+      <c r="AR6" s="26">
         <v>60</v>
       </c>
-      <c r="AU6" s="29">
+      <c r="AU6" s="26">
         <v>1200</v>
       </c>
       <c r="AV6" s="10"/>
       <c r="AW6" s="10"/>
-      <c r="AX6" s="29" t="s">
+      <c r="AX6" s="26" t="s">
         <v>69</v>
       </c>
       <c r="AY6" s="10"/>
       <c r="AZ6" s="10"/>
-      <c r="BA6" s="29" t="s">
+      <c r="BA6" s="26" t="s">
         <v>59</v>
       </c>
       <c r="BB6" s="10"/>
       <c r="BC6" s="10"/>
-      <c r="BD6" s="29" t="s">
+      <c r="BD6" s="26" t="s">
         <v>76</v>
       </c>
       <c r="BE6" s="10" t="s">
@@ -1910,1106 +1881,1096 @@
       <c r="BF6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BG6" s="29"/>
-      <c r="BJ6" s="29"/>
+      <c r="BG6" s="26"/>
+      <c r="BJ6" s="26"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="29"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="26" t="s">
         <v>88</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="26" t="s">
         <v>72</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="26"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="29" t="s">
+      <c r="T7" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="W7" s="29"/>
+      <c r="W7" s="26"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="29"/>
+      <c r="Z7" s="26"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
-      <c r="AC7" s="29"/>
+      <c r="AC7" s="26"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
-      <c r="AF7" s="29"/>
+      <c r="AF7" s="26"/>
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
-      <c r="AI7" s="29"/>
+      <c r="AI7" s="26"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AL7" s="29"/>
+      <c r="AL7" s="26"/>
       <c r="AM7" s="10"/>
       <c r="AN7" s="10"/>
-      <c r="AO7" s="29"/>
-      <c r="AR7" s="29">
+      <c r="AO7" s="26"/>
+      <c r="AR7" s="26">
         <v>50</v>
       </c>
-      <c r="AU7" s="29">
+      <c r="AU7" s="26">
         <v>650</v>
       </c>
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
-      <c r="AX7" s="29" t="s">
+      <c r="AX7" s="26" t="s">
         <v>74</v>
       </c>
       <c r="AY7" s="10"/>
       <c r="AZ7" s="10"/>
-      <c r="BA7" s="29" t="s">
+      <c r="BA7" s="26" t="s">
         <v>75</v>
       </c>
       <c r="BB7" s="10"/>
       <c r="BC7" s="10"/>
-      <c r="BD7" s="29"/>
+      <c r="BD7" s="26"/>
       <c r="BE7" s="10"/>
       <c r="BF7" s="10"/>
-      <c r="BG7" s="29"/>
-      <c r="BJ7" s="29"/>
+      <c r="BG7" s="26"/>
+      <c r="BJ7" s="26"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="26" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="26" t="s">
         <v>79</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="29"/>
+      <c r="Q8" s="26"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="W8" s="29"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="29" t="s">
+      <c r="Z8" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
-      <c r="AC8" s="29" t="s">
+      <c r="AC8" s="26" t="s">
         <v>81</v>
       </c>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
-      <c r="AF8" s="29"/>
+      <c r="AF8" s="26"/>
       <c r="AG8" s="10"/>
       <c r="AH8" s="10"/>
-      <c r="AI8" s="29"/>
+      <c r="AI8" s="26"/>
       <c r="AJ8" s="10"/>
       <c r="AK8" s="10"/>
-      <c r="AL8" s="29"/>
+      <c r="AL8" s="26"/>
       <c r="AM8" s="10"/>
       <c r="AN8" s="10"/>
-      <c r="AO8" s="29"/>
-      <c r="AR8" s="29"/>
-      <c r="AU8" s="29"/>
+      <c r="AO8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AU8" s="26"/>
       <c r="AV8" s="10"/>
       <c r="AW8" s="10"/>
-      <c r="AX8" s="29"/>
+      <c r="AX8" s="26"/>
       <c r="AY8" s="10"/>
       <c r="AZ8" s="10"/>
-      <c r="BA8" s="29" t="s">
+      <c r="BA8" s="26" t="s">
         <v>82</v>
       </c>
       <c r="BB8" s="10"/>
       <c r="BC8" s="10"/>
-      <c r="BD8" s="29"/>
+      <c r="BD8" s="26"/>
       <c r="BE8" s="10"/>
       <c r="BF8" s="10"/>
-      <c r="BG8" s="29"/>
-      <c r="BJ8" s="29"/>
+      <c r="BG8" s="26"/>
+      <c r="BJ8" s="26"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="29"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="26" t="s">
         <v>83</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="29"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="29"/>
+      <c r="Q9" s="26"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="W9" s="29"/>
+      <c r="W9" s="26"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="29"/>
+      <c r="Z9" s="26"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
-      <c r="AC9" s="29" t="s">
+      <c r="AC9" s="26" t="s">
         <v>85</v>
       </c>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
-      <c r="AF9" s="29"/>
+      <c r="AF9" s="26"/>
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
-      <c r="AI9" s="29"/>
+      <c r="AI9" s="26"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
-      <c r="AL9" s="29"/>
+      <c r="AL9" s="26"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
-      <c r="AO9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AU9" s="29"/>
+      <c r="AO9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AU9" s="26"/>
       <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
-      <c r="AX9" s="29" t="s">
+      <c r="AX9" s="26" t="s">
         <v>87</v>
       </c>
       <c r="AY9" s="10"/>
       <c r="AZ9" s="10"/>
-      <c r="BA9" s="29"/>
+      <c r="BA9" s="26"/>
       <c r="BB9" s="10"/>
       <c r="BC9" s="10"/>
-      <c r="BD9" s="29"/>
+      <c r="BD9" s="26"/>
       <c r="BE9" s="10"/>
       <c r="BF9" s="10"/>
-      <c r="BG9" s="29"/>
-      <c r="BJ9" s="29"/>
+      <c r="BG9" s="26"/>
+      <c r="BJ9" s="26"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="29"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="29"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="29"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="29"/>
+      <c r="Q10" s="26"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="29"/>
-      <c r="W10" s="29"/>
+      <c r="T10" s="26"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="29"/>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="29"/>
+      <c r="AC10" s="26"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
-      <c r="AF10" s="29"/>
+      <c r="AF10" s="26"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="29"/>
+      <c r="AI10" s="26"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
-      <c r="AL10" s="29"/>
+      <c r="AL10" s="26"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
-      <c r="AO10" s="29"/>
-      <c r="AR10" s="29"/>
+      <c r="AO10" s="26"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
-      <c r="AU10" s="29"/>
+      <c r="AU10" s="26"/>
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
-      <c r="AX10" s="29"/>
+      <c r="AX10" s="26"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="10"/>
-      <c r="BA10" s="29"/>
+      <c r="BA10" s="26"/>
       <c r="BB10" s="10"/>
       <c r="BC10" s="10"/>
-      <c r="BD10" s="29"/>
+      <c r="BD10" s="26"/>
       <c r="BE10" s="10"/>
       <c r="BF10" s="10"/>
-      <c r="BG10" s="29"/>
-      <c r="BJ10" s="29"/>
+      <c r="BG10" s="26"/>
+      <c r="BJ10" s="26"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="28"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="T11" s="25"/>
+      <c r="W11" s="25"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="28"/>
+      <c r="Z11" s="25"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="28"/>
+      <c r="AC11" s="25"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="28"/>
+      <c r="AF11" s="25"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
-      <c r="AI11" s="28"/>
+      <c r="AI11" s="25"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
-      <c r="AL11" s="28"/>
+      <c r="AL11" s="25"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9"/>
-      <c r="AO11" s="28"/>
-      <c r="AR11" s="28"/>
+      <c r="AO11" s="25"/>
+      <c r="AR11" s="25"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
-      <c r="AU11" s="28"/>
+      <c r="AU11" s="25"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
-      <c r="AX11" s="28"/>
+      <c r="AX11" s="25"/>
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
-      <c r="BA11" s="28"/>
+      <c r="BA11" s="25"/>
       <c r="BB11" s="9"/>
       <c r="BC11" s="9"/>
-      <c r="BD11" s="28"/>
+      <c r="BD11" s="25"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
-      <c r="BG11" s="28"/>
-      <c r="BJ11" s="28"/>
+      <c r="BG11" s="25"/>
+      <c r="BJ11" s="25"/>
     </row>
-    <row r="12" spans="1:64" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>165</v>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="30"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="30"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="30"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="30"/>
-      <c r="W12" s="30"/>
+      <c r="T12" s="27"/>
+      <c r="W12" s="27"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="30"/>
+      <c r="Z12" s="27"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
-      <c r="AC12" s="30"/>
+      <c r="AC12" s="27"/>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
-      <c r="AF12" s="30"/>
+      <c r="AF12" s="27"/>
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
-      <c r="AI12" s="30"/>
+      <c r="AI12" s="27"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
-      <c r="AL12" s="30"/>
+      <c r="AL12" s="27"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
-      <c r="AO12" s="30"/>
-      <c r="AR12" s="30"/>
+      <c r="AO12" s="27"/>
+      <c r="AR12" s="27"/>
       <c r="AS12" s="11"/>
       <c r="AT12" s="11"/>
-      <c r="AU12" s="30"/>
+      <c r="AU12" s="27"/>
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
-      <c r="AX12" s="30"/>
+      <c r="AX12" s="27"/>
       <c r="AY12" s="11"/>
       <c r="AZ12" s="11"/>
-      <c r="BA12" s="30"/>
+      <c r="BA12" s="27"/>
       <c r="BB12" s="11"/>
       <c r="BC12" s="11"/>
-      <c r="BD12" s="30"/>
+      <c r="BD12" s="27"/>
       <c r="BE12" s="11"/>
       <c r="BF12" s="11"/>
-      <c r="BG12" s="30"/>
-      <c r="BJ12" s="30"/>
+      <c r="BG12" s="27"/>
+      <c r="BJ12" s="27"/>
     </row>
-    <row r="13" spans="1:64" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>167</v>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="30"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="30"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="30"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="30"/>
-      <c r="W13" s="30"/>
+      <c r="T13" s="27"/>
+      <c r="W13" s="27"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="30"/>
+      <c r="Z13" s="27"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="30"/>
+      <c r="AC13" s="27"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
-      <c r="AF13" s="30"/>
+      <c r="AF13" s="27"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="30"/>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="11"/>
       <c r="AK13" s="11"/>
-      <c r="AL13" s="30"/>
+      <c r="AL13" s="27"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
-      <c r="AO13" s="30"/>
-      <c r="AR13" s="30"/>
+      <c r="AO13" s="27"/>
+      <c r="AR13" s="27"/>
       <c r="AS13" s="11"/>
       <c r="AT13" s="11"/>
-      <c r="AU13" s="30"/>
+      <c r="AU13" s="27"/>
       <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
-      <c r="AX13" s="30"/>
+      <c r="AX13" s="27"/>
       <c r="AY13" s="11"/>
       <c r="AZ13" s="11"/>
-      <c r="BA13" s="30"/>
+      <c r="BA13" s="27"/>
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
-      <c r="BD13" s="30"/>
+      <c r="BD13" s="27"/>
       <c r="BE13" s="11"/>
       <c r="BF13" s="11"/>
-      <c r="BG13" s="30"/>
-      <c r="BJ13" s="30"/>
+      <c r="BG13" s="27"/>
+      <c r="BJ13" s="27"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="15"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="31"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="31"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="31"/>
-      <c r="W14" s="31"/>
+      <c r="T14" s="28"/>
+      <c r="W14" s="28"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="31"/>
+      <c r="Z14" s="28"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
-      <c r="AC14" s="31"/>
+      <c r="AC14" s="28"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
-      <c r="AF14" s="31"/>
+      <c r="AF14" s="28"/>
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
-      <c r="AI14" s="31"/>
+      <c r="AI14" s="28"/>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
-      <c r="AL14" s="31"/>
+      <c r="AL14" s="28"/>
       <c r="AM14" s="13"/>
       <c r="AN14" s="13"/>
-      <c r="AO14" s="31"/>
+      <c r="AO14" s="28"/>
       <c r="AP14" s="13"/>
       <c r="AQ14" s="13"/>
-      <c r="AR14" s="31"/>
+      <c r="AR14" s="28"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
-      <c r="AU14" s="31"/>
+      <c r="AU14" s="28"/>
       <c r="AV14" s="13"/>
       <c r="AW14" s="13"/>
-      <c r="AX14" s="31"/>
+      <c r="AX14" s="28"/>
       <c r="AY14" s="13"/>
       <c r="AZ14" s="13"/>
-      <c r="BA14" s="31"/>
+      <c r="BA14" s="28"/>
       <c r="BB14" s="13"/>
       <c r="BC14" s="13"/>
-      <c r="BD14" s="31"/>
+      <c r="BD14" s="28"/>
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
-      <c r="BG14" s="31"/>
-      <c r="BJ14" s="31"/>
+      <c r="BG14" s="28"/>
+      <c r="BJ14" s="28"/>
     </row>
-    <row r="15" spans="1:64" ht="31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="22" t="s">
-        <v>129</v>
-      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" s="30"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="W15" s="32" t="s">
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="32" t="s">
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS15" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE15" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF15" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG15" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="32" t="s">
+      <c r="BH15" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="32" t="s">
+      <c r="BI15" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS15" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT15" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU15" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB15" s="11"/>
-      <c r="BC15" s="11"/>
-      <c r="BD15" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE15" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF15" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG15" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH15" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI15" s="22" t="s">
-        <v>142</v>
-      </c>
       <c r="BJ15" s="32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:64" ht="91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="22" t="s">
-        <v>130</v>
-      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="30"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="W16" s="32" t="s">
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="32" t="s">
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="32" t="s">
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS16" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT16" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU16" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB16" s="33"/>
+      <c r="BC16" s="33"/>
+      <c r="BD16" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="35" t="s">
+      <c r="BE16" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF16" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG16" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV16" s="11"/>
-      <c r="AW16" s="11"/>
-      <c r="AX16" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB16" s="11"/>
-      <c r="BC16" s="11"/>
-      <c r="BD16" s="32" t="s">
+      <c r="BH16" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="BE16" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF16" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG16" s="32" t="s">
+      <c r="BI16" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ16" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="BH16" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="BI16" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="BJ16" s="32" t="s">
-        <v>151</v>
-      </c>
     </row>
-    <row r="17" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="22" t="s">
-        <v>105</v>
-      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="30" t="s">
         <v>109</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="34" t="s">
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="34" t="s">
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="34" t="s">
+      <c r="R17" s="30"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="W17" s="35" t="s">
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="36" t="s">
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="34" t="s">
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="35" t="s">
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="35" t="s">
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="35" t="s">
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="34" t="s">
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="34" t="s">
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AS17" s="22" t="s">
+      <c r="AS17" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AT17" s="22" t="s">
+      <c r="AT17" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AU17" s="34" t="s">
+      <c r="AU17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="34" t="s">
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="34" t="s">
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="34" t="s">
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="33"/>
+      <c r="BD17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="BE17" s="22" t="s">
+      <c r="BE17" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="BF17" s="22" t="s">
+      <c r="BF17" s="30" t="s">
         <v>109</v>
       </c>
       <c r="BG17" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="BH17" s="23" t="s">
+      <c r="BH17" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="BI17" s="23" t="s">
+      <c r="BI17" s="30" t="s">
         <v>105</v>
       </c>
       <c r="BJ17" s="32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="22" t="s">
-        <v>106</v>
-      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="30" t="s">
         <v>106</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="34" t="s">
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="34" t="s">
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="34" t="s">
+      <c r="R18" s="30"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS18" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT18" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY18" s="33"/>
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="33"/>
+      <c r="BD18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE18" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="W18" s="35" t="s">
+      <c r="BF18" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="36" t="s">
+      <c r="BG18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="34" t="s">
+      <c r="BH18" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="35" t="s">
+      <c r="BI18" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="35" t="s">
+      <c r="BJ18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU18" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE18" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF18" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG18" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH18" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI18" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ18" s="32" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="19" spans="1:62" ht="31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="30"/>
+        <v>135</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="33"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="33"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="34"/>
     </row>
-    <row r="20" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -3018,120 +2979,120 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="33"/>
+      <c r="K20" s="29"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="33"/>
+      <c r="N20" s="29"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="33"/>
-      <c r="W20" s="33"/>
+      <c r="T20" s="29"/>
+      <c r="W20" s="29"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="33"/>
+      <c r="Z20" s="29"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="33"/>
+      <c r="AC20" s="29"/>
       <c r="AD20" s="12"/>
       <c r="AE20" s="12"/>
-      <c r="AF20" s="33"/>
+      <c r="AF20" s="29"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="33"/>
+      <c r="AI20" s="29"/>
       <c r="AJ20" s="12"/>
       <c r="AK20" s="12"/>
-      <c r="AL20" s="33"/>
+      <c r="AL20" s="29"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
-      <c r="AO20" s="33"/>
+      <c r="AO20" s="29"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
-      <c r="AR20" s="33"/>
+      <c r="AR20" s="29"/>
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
-      <c r="AU20" s="33"/>
+      <c r="AU20" s="29"/>
       <c r="AV20" s="12"/>
       <c r="AW20" s="12"/>
-      <c r="AX20" s="33"/>
+      <c r="AX20" s="29"/>
       <c r="AY20" s="12"/>
       <c r="AZ20" s="12"/>
-      <c r="BA20" s="33"/>
+      <c r="BA20" s="29"/>
       <c r="BB20" s="12"/>
       <c r="BC20" s="12"/>
-      <c r="BD20" s="33"/>
+      <c r="BD20" s="29"/>
       <c r="BE20" s="12"/>
       <c r="BF20" s="12"/>
-      <c r="BG20" s="33"/>
-      <c r="BJ20" s="33"/>
+      <c r="BG20" s="29"/>
+      <c r="BJ20" s="29"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="18"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="28"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="28"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="28"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="28"/>
+      <c r="Q21" s="25"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="28"/>
-      <c r="W21" s="28"/>
+      <c r="T21" s="25"/>
+      <c r="W21" s="25"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="28"/>
+      <c r="Z21" s="25"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
-      <c r="AC21" s="28"/>
+      <c r="AC21" s="25"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
-      <c r="AF21" s="28"/>
+      <c r="AF21" s="25"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="28"/>
+      <c r="AI21" s="25"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
-      <c r="AL21" s="28"/>
+      <c r="AL21" s="25"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
-      <c r="AO21" s="28"/>
+      <c r="AO21" s="25"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
-      <c r="AR21" s="28"/>
+      <c r="AR21" s="25"/>
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
-      <c r="AU21" s="28"/>
+      <c r="AU21" s="25"/>
       <c r="AV21" s="9"/>
       <c r="AW21" s="9"/>
-      <c r="AX21" s="28"/>
+      <c r="AX21" s="25"/>
       <c r="AY21" s="9"/>
       <c r="AZ21" s="9"/>
-      <c r="BA21" s="28"/>
+      <c r="BA21" s="25"/>
       <c r="BB21" s="9"/>
       <c r="BC21" s="9"/>
-      <c r="BD21" s="28"/>
+      <c r="BD21" s="25"/>
       <c r="BE21" s="9"/>
       <c r="BF21" s="9"/>
-      <c r="BG21" s="28"/>
-      <c r="BJ21" s="28"/>
+      <c r="BG21" s="25"/>
+      <c r="BJ21" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2DB732-8E02-4D6C-AD79-6C5A6601CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042CBDC-20E5-4167-89C8-12AC00BE7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="164">
   <si>
     <t>Source Name</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>Concatenate with lower limit</t>
+  </si>
+  <si>
+    <t>This is how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>Only Post Extraction is given in the Metabolights table. After mapping, concatenate  all "EXTRACTION - Post Extraction" information in one cell.</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1232,10 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="13" topLeftCell="AX14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2538,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>141</v>
@@ -2690,7 +2696,7 @@
       <c r="U17" s="31"/>
       <c r="V17" s="31"/>
       <c r="W17" s="34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
@@ -2894,7 +2900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2903,14 +2909,18 @@
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32" t="s">
+        <v>163</v>
+      </c>
       <c r="F19" s="30" t="s">
         <v>150</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="32" t="s">
+        <v>163</v>
+      </c>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="32"/>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C042CBDC-20E5-4167-89C8-12AC00BE7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337978B7-8D9F-482D-AAEB-B5008590CED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B76C40D-5789-4C42-A251-E1451F28BAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E27D11-D556-4696-B4E6-923264272871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=b80a7c05-d6eb-428d-b843-bceeb76af642</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Source Name</t>
   </si>
@@ -211,13 +232,136 @@
   </si>
   <si>
     <t>Term Accession Number (MS:1000027)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>b80a7c05-d6eb-428d-b843-bceeb76af642</t>
+  </si>
+  <si>
+    <t>Metabolomics MassSpec Assay</t>
+  </si>
+  <si>
+    <t>Template to describe preparation and measurement of metabolomics samples</t>
+  </si>
+  <si>
+    <t>annotationTableSpottyDog46</t>
+  </si>
+  <si>
+    <t>METABOLIGHTS</t>
+  </si>
+  <si>
+    <t>Metabolomics</t>
+  </si>
+  <si>
+    <t>metabolites</t>
+  </si>
+  <si>
+    <t>Assay</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Kuhl</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,19 +369,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -246,8 +498,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -263,6 +545,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{2B518007-AAA5-437D-AD4B-771F37659DA1}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,9 +885,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:55:23.03" personId="{2B518007-AAA5-437D-AD4B-771F37659DA1}" id="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:55:23.03" personId="{2B518007-AAA5-437D-AD4B-771F37659DA1}" id="{E86439AF-DCCD-4AAE-9ADE-4D9D287E5F82}" parentId="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
+    <text>id=b80a7c05-d6eb-428d-b843-bceeb76af642</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="625" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -881,4 +1180,271 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8CD2-D7D8-47D1-8355-3B292012E9B8}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableSpottyDog46">
+    <TableValidation DateTime="2021-11-03 16:55" SwateVersion="0.5.1" TableName="annotationTableSpottyDog46" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [MS sample post-extraction]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [MS sample resuspension]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [MS sample type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [MS derivatization]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [label]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [Chromatography instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [Chromatography autosampler model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="22" ColumnHeader="Parameter [Chromatography column type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="25" ColumnHeader="Parameter [Chromatography column model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [Chromatography guard column model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [mobile phase]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="34" ColumnHeader="Parameter [elution]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="37" ColumnHeader="Parameter [scan polarity]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="40" ColumnHeader="Parameter [scan window lower limit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="43" ColumnHeader="Parameter [scan window upper limit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="46" ColumnHeader="Parameter [instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="49" ColumnHeader="Parameter [ionization type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="52" ColumnHeader="Parameter [mass analyzer type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="55" ColumnHeader="Parameter [detector type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="58" ColumnHeader="Parameter [detector acquisition mode]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="61" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21754A48-4FB2-4EAE-8B22-E88B07AADA57}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E27D11-D556-4696-B4E6-923264272871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DECA052-12EB-4B25-96A9-781123F7EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="157">
   <si>
     <t>Source Name</t>
   </si>
@@ -355,13 +356,175 @@
   </si>
   <si>
     <t>1.1.5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000043</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000043</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000044</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000044</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000045</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000045</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000052</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000052</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000079</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000079</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000046</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000046</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000047</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000047</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000053</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000053</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000048</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000048</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000049</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000049</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000080</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000080</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000081</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000081</t>
+  </si>
+  <si>
+    <t>MS:1000465</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000465</t>
+  </si>
+  <si>
+    <t>MS:1000501</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000501</t>
+  </si>
+  <si>
+    <t>MS:1000500</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000500</t>
+  </si>
+  <si>
+    <t>MS:1000031</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000031</t>
+  </si>
+  <si>
+    <t>MS:1000008</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000008</t>
+  </si>
+  <si>
+    <t>MS:1000443</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000443</t>
+  </si>
+  <si>
+    <t>MS:1000026</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000026</t>
+  </si>
+  <si>
+    <t>MS:1000027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,12 +539,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -918,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1412,6 +1569,909 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableSpottyDog46">

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DECA052-12EB-4B25-96A9-781123F7EB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD8690-F816-455A-A477-95A35E93F61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="195">
   <si>
     <t>Source Name</t>
   </si>
@@ -518,6 +527,120 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1000027</t>
+  </si>
+  <si>
+    <t>EXTRACTION - Post Extraction</t>
+  </si>
+  <si>
+    <t>This is how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Only Post Extraction is given in the Metabolights table. After mapping, concatenate  all "EXTRACTION - Post Extraction" information in one cell.</t>
+  </si>
+  <si>
+    <t>This how the sample was extracted into a solvent prior to being injected into the analytical instrument of choice.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>EXTRACTION - Derivatization</t>
+  </si>
+  <si>
+    <t>If the sample has been subjected to chemical modification prior to injection.</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Label</t>
+  </si>
+  <si>
+    <t>If you used a chemical or biochemical marker in the sample such as a radioactive isotope of fluorescent dye which is bound to a material in order to make it detectable in an analytical instrument then enter it here.</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Chromatography Instrument</t>
+  </si>
+  <si>
+    <t>Add the full name of the instrument you used for the Chromatographic part of this assay, including the manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Autosampler model</t>
+  </si>
+  <si>
+    <t>Add the full name of the autosampler you used for the Chromatographic part of this assay, including the manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Column Type</t>
+  </si>
+  <si>
+    <t>For GC/MS Polarity of column used, for LC/MS type or phase of column used. This information can be found on the manufacturer’s website.</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Column Model</t>
+  </si>
+  <si>
+    <t>Manufacturer, model number and dimensions in the format shown in the examples:</t>
+  </si>
+  <si>
+    <t>CHROMATOGRAPHY - Guard column</t>
+  </si>
+  <si>
+    <t>Manufacturer, model number and dimensions in the format shown in the examples for Chromatography column model:</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Scan Polarity</t>
+  </si>
+  <si>
+    <t>This should be ‘positive’ for a GC/MS assay. If you performed a LC/MS assay, values should identical within each assay. If you have ‘positive’ or ‘negative’ values in the same assay then split them into separate ‘positive’ and ‘negative’ assays.</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Scan m/z Range</t>
+  </si>
+  <si>
+    <t>The range used in the assay.</t>
+  </si>
+  <si>
+    <t>Concatenate with upper limit</t>
+  </si>
+  <si>
+    <t>Concatenate with lower limit</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Instrument</t>
+  </si>
+  <si>
+    <t>Add the full name of the mass spectrometer/detector you used for this assay, including the instrument manufacturer and model number as reported in manufacturer’s brochures, user manuals, or on their website.</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Ion Source</t>
+  </si>
+  <si>
+    <t>Where applicable to the instrument.</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Mass Analyzer</t>
+  </si>
+  <si>
+    <t>The analyser of the mass fragments generated during the assay,</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Detector</t>
+  </si>
+  <si>
+    <t>The detector used during the assay,</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Detector mode</t>
+  </si>
+  <si>
+    <t>Method by which detector signal is acquired by the data system.</t>
   </si>
 </sst>
 </file>
@@ -573,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -651,11 +774,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -686,6 +824,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1573,9 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1585,7 +1727,7 @@
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1594,878 +1736,782 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>103</v>
-      </c>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
+      <c r="E4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" t="s">
-        <v>103</v>
-      </c>
+      <c r="E5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
+      <c r="E6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
+      <c r="E7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
+      <c r="E8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
+      <c r="E9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
+      <c r="E10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>103</v>
-      </c>
+      <c r="E11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" t="s">
-        <v>103</v>
-      </c>
+      <c r="E12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" t="s">
-        <v>103</v>
-      </c>
+      <c r="E13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" t="s">
-        <v>103</v>
-      </c>
+      <c r="E14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" t="s">
-        <v>103</v>
-      </c>
+      <c r="E15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" t="s">
-        <v>103</v>
-      </c>
+      <c r="E16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" t="s">
-        <v>103</v>
-      </c>
+      <c r="E17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" t="s">
-        <v>103</v>
-      </c>
+      <c r="E18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" t="s">
-        <v>103</v>
-      </c>
+      <c r="E19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" t="s">
-        <v>103</v>
-      </c>
+      <c r="E20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" t="s">
-        <v>103</v>
-      </c>
+      <c r="E21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" t="s">
-        <v>103</v>
-      </c>
+      <c r="E22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" t="s">
-        <v>103</v>
-      </c>
+      <c r="E23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DD8690-F816-455A-A477-95A35E93F61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F74731C-C42C-48E2-B5F3-24AC45936A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
   <si>
     <t>Source Name</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Martin</t>
   </si>
   <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -641,13 +638,151 @@
   </si>
   <si>
     <t>Method by which detector signal is acquired by the data system.</t>
+  </si>
+  <si>
+    <t>dried in a vacuum centrifuge, resuspended  in ddH2O</t>
+  </si>
+  <si>
+    <t>Solid phase microextraction (SPME)</t>
+  </si>
+  <si>
+    <t>direct injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dried in vacuum concentrator </t>
+  </si>
+  <si>
+    <t>dried samples resuspended in pyridine</t>
+  </si>
+  <si>
+    <t>dried samples resuspended in acetonitrile</t>
+  </si>
+  <si>
+    <t>pooled sample</t>
+  </si>
+  <si>
+    <t>medium blank</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>retention index standard</t>
+  </si>
+  <si>
+    <t>experimental sample</t>
+  </si>
+  <si>
+    <t>silylation</t>
+  </si>
+  <si>
+    <t>methoxymation and silylation</t>
+  </si>
+  <si>
+    <t>methoxymation</t>
+  </si>
+  <si>
+    <t>methoxyamination + trimethylsylilation (TMS)</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>15N</t>
+  </si>
+  <si>
+    <t>Thermo Scientific Dionex Ultimate 3000 HPLC system</t>
+  </si>
+  <si>
+    <t>Agilent 7890B GC</t>
+  </si>
+  <si>
+    <t>Agilent 5975T LTM GC</t>
+  </si>
+  <si>
+    <t>Waters ACQUITY UPLC system</t>
+  </si>
+  <si>
+    <t>Thermo Scientific Vanquish UHPLC System</t>
+  </si>
+  <si>
+    <t>GERSTEL MultiPurpose Sampler (MPS) Dual Head</t>
+  </si>
+  <si>
+    <t>reverse phase</t>
+  </si>
+  <si>
+    <t>low polarity</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>XSelect HSS T3 (2 5 ¬µm, 3 0 mm x 150 mm length; Waters)</t>
+  </si>
+  <si>
+    <t>HP-5ms GC (0 25 ¬µm, 0 25 mm x 30 m; Agilent Technologies)</t>
+  </si>
+  <si>
+    <t>Synergi Polar-RP (4 µm, 4 6 mm x 100 mm; Phenomenex)</t>
+  </si>
+  <si>
+    <t>ACQUITY UPLC HSS T3 (1 8 µm, 2 1 mm x 100 mm; Waters)</t>
+  </si>
+  <si>
+    <t>ACQUITY UPLC HSS T3 VanGuard Pre-column (1 8 µm, 2 1 mm x 5 mm; Waters)</t>
+  </si>
+  <si>
+    <t>A: H2O (0.1% formic acid), B: ACN (0.1% formic acid)</t>
+  </si>
+  <si>
+    <t>20% ACN</t>
+  </si>
+  <si>
+    <t>gradient elution</t>
+  </si>
+  <si>
+    <t>isocratic elution</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Bruker maXis 4G UHR-ToF</t>
+  </si>
+  <si>
+    <t>Waters SYNAPT HDMS System</t>
+  </si>
+  <si>
+    <t>Agilent 5975C inert XL MSD</t>
+  </si>
+  <si>
+    <t>Agilent 6560 Ion Mobility Q-TOF</t>
+  </si>
+  <si>
+    <t>electrospray ionization</t>
+  </si>
+  <si>
+    <t>electron ionization</t>
+  </si>
+  <si>
+    <t>electron impact</t>
+  </si>
+  <si>
+    <t>quadrupole</t>
+  </si>
+  <si>
+    <t>single quadrupole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +794,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,10 +932,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -831,11 +974,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9AC74787-D67A-4B33-A1D2-9A84BA6D8808}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -855,8 +1007,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}" name="annotationTableSpottyDog46" displayName="annotationTableSpottyDog46" ref="A1:BJ2" totalsRowShown="0">
-  <autoFilter ref="A1:BJ2" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}" name="annotationTableSpottyDog46" displayName="annotationTableSpottyDog46" ref="A1:BJ6" totalsRowShown="0">
+  <autoFilter ref="A1:BJ6" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}"/>
   <tableColumns count="62">
     <tableColumn id="1" xr3:uid="{3EFB8194-FD75-4232-BFAD-99FDD6998F2F}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{A4B8CC44-FA31-44E2-BB1C-4E07BEB56D91}" name="Parameter [MS sample post-extraction]"/>
@@ -898,10 +1050,10 @@
     <tableColumn id="39" xr3:uid="{109BD3E0-06CF-4571-8438-09A88660F822}" name="Parameter [scan polarity]"/>
     <tableColumn id="40" xr3:uid="{4E0B2440-5FD0-4A8B-9927-BA270C48E0CE}" name="Term Source REF (MS:1000465)"/>
     <tableColumn id="41" xr3:uid="{D8B0A30C-A5F0-420B-B68B-A5AC2A02D2E3}" name="Term Accession Number (MS:1000465)"/>
-    <tableColumn id="42" xr3:uid="{0E0EB8CE-FD7E-4171-B365-D47C572603C1}" name="Parameter [scan window lower limit]"/>
+    <tableColumn id="42" xr3:uid="{0E0EB8CE-FD7E-4171-B365-D47C572603C1}" name="Parameter [scan window lower limit]" dataDxfId="1"/>
     <tableColumn id="43" xr3:uid="{25EA6CD4-34C1-4F01-B63C-ECF74CE0E831}" name="Term Source REF (MS:1000501)"/>
     <tableColumn id="44" xr3:uid="{12A46C90-C509-4330-8CDE-46A2985A7BC5}" name="Term Accession Number (MS:1000501)"/>
-    <tableColumn id="45" xr3:uid="{6687468A-639D-4D6F-81D2-588A3C9D554F}" name="Parameter [scan window upper limit]"/>
+    <tableColumn id="45" xr3:uid="{6687468A-639D-4D6F-81D2-588A3C9D554F}" name="Parameter [scan window upper limit]" dataDxfId="0"/>
     <tableColumn id="46" xr3:uid="{BC02F7C9-0598-4E88-AFFF-33AC587C2495}" name="Term Source REF (MS:1000500)"/>
     <tableColumn id="47" xr3:uid="{8ECBD557-7283-4A7C-BD07-8DEBDA70B6E5}" name="Term Accession Number (MS:1000500)"/>
     <tableColumn id="48" xr3:uid="{C140CC98-619D-46DC-91FE-B6AE61614E2F}" name="Parameter [instrument model]"/>
@@ -1202,6 +1354,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="632" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -1215,9 +1370,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{189D51EB-FAB1-4967-8C11-302E4CB4FE69}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ1"/>
+  <dimension ref="A1:BJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,10 +1428,10 @@
     <col min="38" max="38" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="36.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="30.85546875" bestFit="1" customWidth="1"/>
@@ -1408,7 +1573,7 @@
       <c r="AN1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="13" t="s">
         <v>41</v>
       </c>
       <c r="AP1" t="s">
@@ -1417,7 +1582,7 @@
       <c r="AQ1" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AS1" t="s">
@@ -1475,10 +1640,177 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>211</v>
+      </c>
+      <c r="T2" t="s">
+        <v>216</v>
+      </c>
+      <c r="W2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO2" s="13">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="13">
+        <v>1300</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>212</v>
+      </c>
+      <c r="W3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO3" s="13">
+        <v>60</v>
+      </c>
+      <c r="AR3" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO4" s="13">
+        <v>50</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>650</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1517,7 +1849,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,40 +2069,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1778,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1804,19 +2136,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1830,34 +2162,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="L4" s="12"/>
     </row>
@@ -1866,34 +2198,34 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="L5" s="12"/>
     </row>
@@ -1902,31 +2234,31 @@
         <v>8</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -1936,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="I7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -1970,31 +2302,31 @@
         <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="I8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -2004,31 +2336,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="J9" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2038,31 +2370,31 @@
         <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="I10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -2072,31 +2404,31 @@
         <v>23</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2106,31 +2438,31 @@
         <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>133</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="I12" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -2140,31 +2472,31 @@
         <v>29</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="I13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2174,31 +2506,31 @@
         <v>32</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2208,31 +2540,31 @@
         <v>35</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2242,31 +2574,31 @@
         <v>38</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>180</v>
-      </c>
       <c r="I16" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -2276,34 +2608,34 @@
         <v>41</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="L17" s="12"/>
     </row>
@@ -2312,34 +2644,34 @@
         <v>44</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="I18" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -2348,31 +2680,31 @@
         <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="I19" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -2382,31 +2714,31 @@
         <v>50</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="I20" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -2416,31 +2748,31 @@
         <v>53</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>190</v>
-      </c>
       <c r="I21" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -2450,31 +2782,31 @@
         <v>56</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="E22" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="I22" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2484,31 +2816,31 @@
         <v>59</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="I23" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -2521,25 +2853,25 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableSpottyDog46">
-    <TableValidation DateTime="2021-11-03 16:55" SwateVersion="0.5.1" TableName="annotationTableSpottyDog46" Userlist="">
+    <TableValidation DateTime="2021-12-13 20:47" SwateVersion="0.5.1" TableName="annotationTableSpottyDog46" Userlist="">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [MS sample post-extraction]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [MS sample resuspension]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [MS sample type]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [MS derivatization]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [MS derivatization]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (MS derivatization)"/>
       <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [label]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [Chromatography instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [Chromatography autosampler model]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="22" ColumnHeader="Parameter [Chromatography column type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [Chromatography instrument model]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Chromatography instrument model)"/>
+      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [Chromatography autosampler model]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Chromatography autosampler model)"/>
+      <ColumnValidation ColumnAdress="22" ColumnHeader="Parameter [Chromatography column type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Chromatography column type)"/>
       <ColumnValidation ColumnAdress="25" ColumnHeader="Parameter [Chromatography column model]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [Chromatography guard column model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="28" ColumnHeader="Parameter [Chromatography guard column model]" Importance="4" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="31" ColumnHeader="Parameter [mobile phase]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="34" ColumnHeader="Parameter [elution]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="37" ColumnHeader="Parameter [scan polarity]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="37" ColumnHeader="Parameter [scan polarity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (scan polarity)"/>
       <ColumnValidation ColumnAdress="40" ColumnHeader="Parameter [scan window lower limit]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="43" ColumnHeader="Parameter [scan window upper limit]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="46" ColumnHeader="Parameter [instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="49" ColumnHeader="Parameter [ionization type]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="46" ColumnHeader="Parameter [instrument model]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (instrument model)"/>
+      <ColumnValidation ColumnAdress="49" ColumnHeader="Parameter [ionization type]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (ionization type)"/>
       <ColumnValidation ColumnAdress="52" ColumnHeader="Parameter [mass analyzer type]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="55" ColumnHeader="Parameter [detector type]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="58" ColumnHeader="Parameter [detector acquisition mode]" Importance="None" Unit="None" ValidationFormat="None"/>
@@ -2550,7 +2882,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21754A48-4FB2-4EAE-8B22-E88B07AADA57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86953B2C-1C01-4A0C-82C2-891700F9197C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F74731C-C42C-48E2-B5F3-24AC45936A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E15BB-250E-4EF5-A4AA-C7FA6480D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="245">
   <si>
     <t>Source Name</t>
   </si>
@@ -664,9 +664,6 @@
     <t>medium blank</t>
   </si>
   <si>
-    <t>quality control</t>
-  </si>
-  <si>
     <t>retention index standard</t>
   </si>
   <si>
@@ -715,9 +712,6 @@
     <t>low polarity</t>
   </si>
   <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
     <t>XSelect HSS T3 (2 5 ¬µm, 3 0 mm x 150 mm length; Waters)</t>
   </si>
   <si>
@@ -776,6 +770,27 @@
   </si>
   <si>
     <t>single quadrupole</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000112</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000073</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000389</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000081</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1366,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="639" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="632" row="2">
@@ -1389,22 +1404,22 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="47.7109375" bestFit="1" customWidth="1"/>
@@ -1413,13 +1428,13 @@
     <col min="23" max="23" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="43" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="70" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
@@ -1644,166 +1659,478 @@
       <c r="B2" t="s">
         <v>194</v>
       </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
       <c r="E2" t="s">
         <v>198</v>
       </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
       <c r="H2" t="s">
         <v>200</v>
       </c>
+      <c r="I2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" t="s">
+        <v>238</v>
+      </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="L2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" t="s">
+        <v>238</v>
       </c>
       <c r="N2" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="O2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P2" t="s">
+        <v>238</v>
       </c>
       <c r="Q2" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="R2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S2" t="s">
+        <v>238</v>
       </c>
       <c r="T2" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" t="s">
+        <v>238</v>
+      </c>
+      <c r="V2" t="s">
+        <v>238</v>
+      </c>
+      <c r="W2" t="s">
         <v>216</v>
       </c>
-      <c r="W2" t="s">
-        <v>217</v>
+      <c r="X2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>238</v>
       </c>
       <c r="Z2" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>238</v>
       </c>
       <c r="AC2" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>238</v>
       </c>
       <c r="AF2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI2" t="s">
         <v>225</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL2" t="s">
         <v>227</v>
       </c>
-      <c r="AL2" t="s">
-        <v>229</v>
+      <c r="AM2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>238</v>
       </c>
       <c r="AO2" s="13">
         <v>50</v>
       </c>
+      <c r="AP2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>238</v>
+      </c>
       <c r="AR2" s="13">
         <v>1300</v>
       </c>
+      <c r="AS2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>238</v>
+      </c>
       <c r="AU2" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>238</v>
       </c>
       <c r="AX2" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>241</v>
       </c>
       <c r="BA2" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>195</v>
       </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
       <c r="E3" t="s">
         <v>199</v>
       </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
       <c r="H3" t="s">
         <v>201</v>
       </c>
+      <c r="I3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" t="s">
+        <v>238</v>
+      </c>
       <c r="K3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="L3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" t="s">
+        <v>238</v>
       </c>
       <c r="N3" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="O3" t="s">
+        <v>238</v>
+      </c>
+      <c r="P3" t="s">
+        <v>238</v>
       </c>
       <c r="Q3" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="R3" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" t="s">
+        <v>238</v>
       </c>
       <c r="W3" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="X3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>238</v>
       </c>
       <c r="Z3" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>238</v>
       </c>
       <c r="AF3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI3" t="s">
         <v>226</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL3" t="s">
         <v>228</v>
       </c>
-      <c r="AL3" t="s">
-        <v>230</v>
+      <c r="AM3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>238</v>
       </c>
       <c r="AO3" s="13">
         <v>60</v>
       </c>
+      <c r="AP3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>238</v>
+      </c>
       <c r="AR3" s="13">
         <v>1200</v>
       </c>
+      <c r="AS3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>238</v>
+      </c>
       <c r="AU3" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>238</v>
       </c>
       <c r="AX3" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>241</v>
       </c>
       <c r="BA3" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>196</v>
       </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
       <c r="H4" t="s">
-        <v>202</v>
+        <v>239</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>240</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="L4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" t="s">
+        <v>238</v>
       </c>
       <c r="Q4" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="R4" t="s">
+        <v>238</v>
+      </c>
+      <c r="S4" t="s">
+        <v>238</v>
       </c>
       <c r="Z4" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>238</v>
       </c>
       <c r="AO4" s="13">
         <v>50</v>
       </c>
+      <c r="AP4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>238</v>
+      </c>
       <c r="AR4" s="13">
         <v>650</v>
       </c>
+      <c r="AS4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>238</v>
+      </c>
       <c r="AU4" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>238</v>
       </c>
       <c r="AX4" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>197</v>
       </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="I5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" t="s">
+        <v>238</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="L5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" t="s">
+        <v>238</v>
       </c>
       <c r="Q5" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="R5" t="s">
+        <v>238</v>
+      </c>
+      <c r="S5" t="s">
+        <v>238</v>
       </c>
       <c r="Z5" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>238</v>
       </c>
       <c r="AU5" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>238</v>
       </c>
       <c r="AX5" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" t="s">
+        <v>238</v>
       </c>
       <c r="Q6" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="R6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S6" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +2176,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
